--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Japanese revision\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\online web app deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176D58C3-D8A3-4AC4-80F0-06FD094EC01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57F1A00-198B-4578-8466-5677D5E9580E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="373">
   <si>
     <t>Dictionary Form</t>
   </si>
@@ -1221,6 +1221,10 @@
   </si>
   <si>
     <t>飛ぼう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>na</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1228,7 +1232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1260,6 +1264,13 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1281,7 +1292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1290,6 +1301,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1606,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1876,6 +1888,9 @@
       <c r="E13" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="F13" s="4" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1893,6 +1908,9 @@
       <c r="E14" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="F14" s="4" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1910,6 +1928,9 @@
       <c r="E15" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="F15" s="4" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1927,8 +1948,11 @@
       <c r="E16" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -1944,8 +1968,11 @@
       <c r="E17" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -1961,8 +1988,11 @@
       <c r="E18" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -1978,8 +2008,11 @@
       <c r="E19" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -1995,8 +2028,11 @@
       <c r="E20" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -2012,8 +2048,11 @@
       <c r="E21" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -2029,8 +2068,11 @@
       <c r="E22" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -2046,8 +2088,11 @@
       <c r="E23" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>115</v>
       </c>
@@ -2063,8 +2108,11 @@
       <c r="E24" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>120</v>
       </c>
@@ -2080,8 +2128,11 @@
       <c r="E25" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>125</v>
       </c>
@@ -2097,8 +2148,11 @@
       <c r="E26" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>130</v>
       </c>
@@ -2114,8 +2168,11 @@
       <c r="E27" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -2131,8 +2188,11 @@
       <c r="E28" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -2148,8 +2208,11 @@
       <c r="E29" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>145</v>
       </c>
@@ -2165,8 +2228,11 @@
       <c r="E30" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -2182,8 +2248,11 @@
       <c r="E31" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>155</v>
       </c>
@@ -2199,8 +2268,11 @@
       <c r="E32" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -2216,8 +2288,11 @@
       <c r="E33" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>165</v>
       </c>
@@ -2233,8 +2308,11 @@
       <c r="E34" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>170</v>
       </c>
@@ -2250,8 +2328,11 @@
       <c r="E35" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>175</v>
       </c>
@@ -2267,8 +2348,11 @@
       <c r="E36" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>180</v>
       </c>
@@ -2284,8 +2368,11 @@
       <c r="E37" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>185</v>
       </c>
@@ -2301,8 +2388,11 @@
       <c r="E38" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>190</v>
       </c>
@@ -2318,8 +2408,11 @@
       <c r="E39" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>195</v>
       </c>
@@ -2335,8 +2428,11 @@
       <c r="E40" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>200</v>
       </c>
@@ -2352,8 +2448,11 @@
       <c r="E41" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>205</v>
       </c>
@@ -2369,8 +2468,11 @@
       <c r="E42" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>210</v>
       </c>
@@ -2386,8 +2488,11 @@
       <c r="E43" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -2403,8 +2508,11 @@
       <c r="E44" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>215</v>
       </c>
@@ -2420,8 +2528,11 @@
       <c r="E45" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>220</v>
       </c>
@@ -2437,8 +2548,11 @@
       <c r="E46" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>225</v>
       </c>
@@ -2454,8 +2568,11 @@
       <c r="E47" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>230</v>
       </c>
@@ -2471,8 +2588,11 @@
       <c r="E48" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>235</v>
       </c>
@@ -2488,8 +2608,11 @@
       <c r="E49" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>240</v>
       </c>
@@ -2505,8 +2628,11 @@
       <c r="E50" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>245</v>
       </c>
@@ -2522,8 +2648,11 @@
       <c r="E51" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>250</v>
       </c>
@@ -2539,8 +2668,11 @@
       <c r="E52" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>255</v>
       </c>
@@ -2556,8 +2688,11 @@
       <c r="E53" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>260</v>
       </c>
@@ -2573,8 +2708,11 @@
       <c r="E54" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>265</v>
       </c>
@@ -2590,8 +2728,11 @@
       <c r="E55" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>270</v>
       </c>
@@ -2607,8 +2748,11 @@
       <c r="E56" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>275</v>
       </c>
@@ -2624,8 +2768,11 @@
       <c r="E57" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>280</v>
       </c>
@@ -2641,8 +2788,11 @@
       <c r="E58" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>285</v>
       </c>
@@ -2658,8 +2808,11 @@
       <c r="E59" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="F59" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>290</v>
       </c>
@@ -2675,8 +2828,11 @@
       <c r="E60" s="3" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="F60" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>295</v>
       </c>
@@ -2692,8 +2848,11 @@
       <c r="E61" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="F61" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>300</v>
       </c>
@@ -2709,8 +2868,11 @@
       <c r="E62" s="3" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="F62" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>305</v>
       </c>
@@ -2726,8 +2888,11 @@
       <c r="E63" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="F63" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>310</v>
       </c>
@@ -2743,8 +2908,11 @@
       <c r="E64" s="3" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="F64" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
         <v>315</v>
       </c>
@@ -2760,8 +2928,11 @@
       <c r="E65" s="3" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="F65" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
         <v>320</v>
       </c>
@@ -2777,8 +2948,11 @@
       <c r="E66" s="3" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="F66" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
         <v>325</v>
       </c>
@@ -2794,8 +2968,11 @@
       <c r="E67" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="F67" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
         <v>330</v>
       </c>
@@ -2811,8 +2988,11 @@
       <c r="E68" s="3" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="F68" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
         <v>335</v>
       </c>
@@ -2828,8 +3008,11 @@
       <c r="E69" s="3" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="F69" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
         <v>340</v>
       </c>
@@ -2845,8 +3028,11 @@
       <c r="E70" s="3" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="F70" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
         <v>350</v>
       </c>
@@ -2862,8 +3048,11 @@
       <c r="E71" s="3" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="F71" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
         <v>355</v>
       </c>
@@ -2879,8 +3068,11 @@
       <c r="E72" s="3" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="F72" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
         <v>363</v>
       </c>
@@ -2895,6 +3087,9 @@
       </c>
       <c r="E73" s="3" t="s">
         <v>367</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\online web app deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57F1A00-198B-4578-8466-5677D5E9580E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DF7F5A-AF11-4841-AF21-01F822CB12E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="378">
   <si>
     <t>Dictionary Form</t>
   </si>
@@ -1225,6 +1225,26 @@
   </si>
   <si>
     <t>na</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>始まる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>始まって</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>始まった</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>始まらない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>始まります</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1616,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3092,6 +3112,26 @@
         <v>372</v>
       </c>
     </row>
+    <row r="74" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A74" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\online web app deployment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mptang\Desktop\local testing\online-web-app-deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DF7F5A-AF11-4841-AF21-01F822CB12E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B5BEAD-F4B8-4E5E-9D4C-6B9236DC5AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
+    <workbookView xWindow="37125" yWindow="3840" windowWidth="21600" windowHeight="11295" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="390">
   <si>
     <t>Dictionary Form</t>
   </si>
@@ -1246,17 +1246,53 @@
   <si>
     <t>始まります</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>終わる</t>
+  </si>
+  <si>
+    <t>終わって</t>
+  </si>
+  <si>
+    <t>終わった</t>
+  </si>
+  <si>
+    <t>終わらない</t>
+  </si>
+  <si>
+    <t>終わります</t>
+  </si>
+  <si>
+    <t>終わろう</t>
+  </si>
+  <si>
+    <t>掛かる</t>
+  </si>
+  <si>
+    <t>掛かって</t>
+  </si>
+  <si>
+    <t>掛かった</t>
+  </si>
+  <si>
+    <t>掛からない</t>
+  </si>
+  <si>
+    <t>掛かります</t>
+  </si>
+  <si>
+    <t>掛かろう</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1265,14 +1301,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1324,7 +1360,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1340,9 +1376,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1380,7 +1416,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1486,7 +1522,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1628,7 +1664,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1636,13 +1672,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
@@ -1652,7 +1688,7 @@
     <col min="6" max="6" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1672,7 +1708,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="18.75">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1692,7 +1728,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1712,7 +1748,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="18.75">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1732,7 +1768,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1752,7 +1788,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="18.75">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1772,7 +1808,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="18.75">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -1792,7 +1828,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="18.75">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1812,7 +1848,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="18.75">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -1832,7 +1868,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="18.75">
       <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
@@ -1852,7 +1888,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="18.75">
       <c r="A11" s="2" t="s">
         <v>50</v>
       </c>
@@ -1872,7 +1908,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="18.75">
       <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
@@ -1892,7 +1928,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>60</v>
       </c>
@@ -1912,7 +1948,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>65</v>
       </c>
@@ -1932,7 +1968,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -1952,7 +1988,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -1972,7 +2008,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -1992,7 +2028,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -2012,7 +2048,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -2032,7 +2068,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -2052,7 +2088,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -2072,7 +2108,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -2092,7 +2128,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -2112,7 +2148,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>115</v>
       </c>
@@ -2132,7 +2168,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>120</v>
       </c>
@@ -2152,7 +2188,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>125</v>
       </c>
@@ -2172,7 +2208,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>130</v>
       </c>
@@ -2192,7 +2228,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -2212,7 +2248,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -2232,7 +2268,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>145</v>
       </c>
@@ -2252,7 +2288,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -2272,7 +2308,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>155</v>
       </c>
@@ -2292,7 +2328,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -2312,7 +2348,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>165</v>
       </c>
@@ -2332,7 +2368,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>170</v>
       </c>
@@ -2352,7 +2388,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>175</v>
       </c>
@@ -2372,7 +2408,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>180</v>
       </c>
@@ -2392,7 +2428,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>185</v>
       </c>
@@ -2412,7 +2448,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>190</v>
       </c>
@@ -2432,7 +2468,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>195</v>
       </c>
@@ -2452,7 +2488,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>200</v>
       </c>
@@ -2472,7 +2508,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>205</v>
       </c>
@@ -2492,7 +2528,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>210</v>
       </c>
@@ -2512,7 +2548,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -2532,7 +2568,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>215</v>
       </c>
@@ -2552,7 +2588,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>220</v>
       </c>
@@ -2572,7 +2608,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>225</v>
       </c>
@@ -2592,7 +2628,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>230</v>
       </c>
@@ -2612,7 +2648,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>235</v>
       </c>
@@ -2632,7 +2668,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>240</v>
       </c>
@@ -2652,7 +2688,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>245</v>
       </c>
@@ -2672,7 +2708,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>250</v>
       </c>
@@ -2692,7 +2728,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>255</v>
       </c>
@@ -2712,7 +2748,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>260</v>
       </c>
@@ -2732,7 +2768,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>265</v>
       </c>
@@ -2752,7 +2788,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>270</v>
       </c>
@@ -2772,7 +2808,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>275</v>
       </c>
@@ -2792,7 +2828,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>280</v>
       </c>
@@ -2812,7 +2848,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>285</v>
       </c>
@@ -2832,7 +2868,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" ht="18.75">
       <c r="A60" s="3" t="s">
         <v>290</v>
       </c>
@@ -2852,7 +2888,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" ht="18.75">
       <c r="A61" s="3" t="s">
         <v>295</v>
       </c>
@@ -2872,7 +2908,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" ht="18.75">
       <c r="A62" s="3" t="s">
         <v>300</v>
       </c>
@@ -2892,7 +2928,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" ht="18.75">
       <c r="A63" s="3" t="s">
         <v>305</v>
       </c>
@@ -2912,7 +2948,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" ht="18.75">
       <c r="A64" s="3" t="s">
         <v>310</v>
       </c>
@@ -2932,7 +2968,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" ht="18.75">
       <c r="A65" s="3" t="s">
         <v>315</v>
       </c>
@@ -2952,7 +2988,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" ht="18.75">
       <c r="A66" s="3" t="s">
         <v>320</v>
       </c>
@@ -2972,7 +3008,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" ht="18.75">
       <c r="A67" s="3" t="s">
         <v>325</v>
       </c>
@@ -2992,7 +3028,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" ht="18.75">
       <c r="A68" s="3" t="s">
         <v>330</v>
       </c>
@@ -3012,7 +3048,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" ht="18.75">
       <c r="A69" s="3" t="s">
         <v>335</v>
       </c>
@@ -3032,7 +3068,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" ht="18.75">
       <c r="A70" s="3" t="s">
         <v>340</v>
       </c>
@@ -3052,7 +3088,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" ht="18.75">
       <c r="A71" s="3" t="s">
         <v>350</v>
       </c>
@@ -3072,7 +3108,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" ht="18.75">
       <c r="A72" s="3" t="s">
         <v>355</v>
       </c>
@@ -3092,7 +3128,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" ht="18.75">
       <c r="A73" s="3" t="s">
         <v>363</v>
       </c>
@@ -3112,7 +3148,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" ht="18.75">
       <c r="A74" s="3" t="s">
         <v>373</v>
       </c>
@@ -3130,6 +3166,46 @@
       </c>
       <c r="F74" s="4" t="s">
         <v>372</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="18.75">
+      <c r="A75" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="18.75">
+      <c r="A76" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mptang\Desktop\local testing\online-web-app-deployment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\online web app deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B5BEAD-F4B8-4E5E-9D4C-6B9236DC5AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C336A955-C04F-4645-95F9-62558BFEF9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37125" yWindow="3840" windowWidth="21600" windowHeight="11295" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="402">
   <si>
     <t>Dictionary Form</t>
   </si>
@@ -1282,17 +1282,65 @@
   </si>
   <si>
     <t>掛かろう</t>
+  </si>
+  <si>
+    <t>押す</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>押して</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>押した</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>押さない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>押します</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>押そう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡す</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡して</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡した</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡さない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡します</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡そう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1301,14 +1349,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1360,7 +1408,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1376,9 +1424,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1416,7 +1464,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1522,7 +1570,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1664,7 +1712,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1672,13 +1720,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
@@ -1688,7 +1736,7 @@
     <col min="6" max="6" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1708,7 +1756,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75">
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1728,7 +1776,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1748,7 +1796,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1768,7 +1816,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1788,7 +1836,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75">
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1808,7 +1856,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75">
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -1828,7 +1876,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75">
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1848,7 +1896,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75">
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -1868,7 +1916,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75">
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
@@ -1888,7 +1936,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75">
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>50</v>
       </c>
@@ -1908,7 +1956,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.75">
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
@@ -1928,7 +1976,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>60</v>
       </c>
@@ -1948,7 +1996,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>65</v>
       </c>
@@ -1968,7 +2016,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -1988,7 +2036,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -2008,7 +2056,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -2028,7 +2076,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -2048,7 +2096,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -2068,7 +2116,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -2088,7 +2136,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -2108,7 +2156,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -2128,7 +2176,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -2148,7 +2196,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>115</v>
       </c>
@@ -2168,7 +2216,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>120</v>
       </c>
@@ -2188,7 +2236,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>125</v>
       </c>
@@ -2208,7 +2256,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>130</v>
       </c>
@@ -2228,7 +2276,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -2248,7 +2296,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -2268,7 +2316,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>145</v>
       </c>
@@ -2288,7 +2336,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -2308,7 +2356,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>155</v>
       </c>
@@ -2328,7 +2376,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -2348,7 +2396,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>165</v>
       </c>
@@ -2368,7 +2416,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>170</v>
       </c>
@@ -2388,7 +2436,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>175</v>
       </c>
@@ -2408,7 +2456,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>180</v>
       </c>
@@ -2428,7 +2476,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>185</v>
       </c>
@@ -2448,7 +2496,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>190</v>
       </c>
@@ -2468,7 +2516,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>195</v>
       </c>
@@ -2488,7 +2536,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>200</v>
       </c>
@@ -2508,7 +2556,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>205</v>
       </c>
@@ -2528,7 +2576,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>210</v>
       </c>
@@ -2548,7 +2596,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -2568,7 +2616,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>215</v>
       </c>
@@ -2588,7 +2636,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>220</v>
       </c>
@@ -2608,7 +2656,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>225</v>
       </c>
@@ -2628,7 +2676,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>230</v>
       </c>
@@ -2648,7 +2696,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>235</v>
       </c>
@@ -2668,7 +2716,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>240</v>
       </c>
@@ -2688,7 +2736,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>245</v>
       </c>
@@ -2708,7 +2756,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>250</v>
       </c>
@@ -2728,7 +2776,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>255</v>
       </c>
@@ -2748,7 +2796,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>260</v>
       </c>
@@ -2768,7 +2816,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>265</v>
       </c>
@@ -2788,7 +2836,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>270</v>
       </c>
@@ -2808,7 +2856,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>275</v>
       </c>
@@ -2828,7 +2876,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>280</v>
       </c>
@@ -2848,7 +2896,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>285</v>
       </c>
@@ -2868,7 +2916,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="18.75">
+    <row r="60" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>290</v>
       </c>
@@ -2888,7 +2936,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="18.75">
+    <row r="61" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>295</v>
       </c>
@@ -2908,7 +2956,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="18.75">
+    <row r="62" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>300</v>
       </c>
@@ -2928,7 +2976,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="18.75">
+    <row r="63" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>305</v>
       </c>
@@ -2948,7 +2996,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="18.75">
+    <row r="64" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>310</v>
       </c>
@@ -2968,7 +3016,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="18.75">
+    <row r="65" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
         <v>315</v>
       </c>
@@ -2988,7 +3036,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="18.75">
+    <row r="66" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
         <v>320</v>
       </c>
@@ -3008,7 +3056,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="18.75">
+    <row r="67" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
         <v>325</v>
       </c>
@@ -3028,7 +3076,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="18.75">
+    <row r="68" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
         <v>330</v>
       </c>
@@ -3048,7 +3096,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="18.75">
+    <row r="69" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
         <v>335</v>
       </c>
@@ -3068,7 +3116,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="18.75">
+    <row r="70" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
         <v>340</v>
       </c>
@@ -3088,7 +3136,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="18.75">
+    <row r="71" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
         <v>350</v>
       </c>
@@ -3108,7 +3156,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="18.75">
+    <row r="72" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
         <v>355</v>
       </c>
@@ -3128,7 +3176,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="18.75">
+    <row r="73" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
         <v>363</v>
       </c>
@@ -3148,7 +3196,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="18.75">
+    <row r="74" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>373</v>
       </c>
@@ -3168,7 +3216,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="18.75">
+    <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
         <v>378</v>
       </c>
@@ -3188,7 +3236,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="18.75">
+    <row r="76" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
         <v>384</v>
       </c>
@@ -3206,6 +3254,46 @@
       </c>
       <c r="F76" s="4" t="s">
         <v>389</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A77" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A78" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\online web app deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C336A955-C04F-4645-95F9-62558BFEF9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239C9E7A-1FD0-46BE-AF7E-CB8D8F9B24BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="416">
   <si>
     <t>Dictionary Form</t>
   </si>
@@ -54,12 +54,6 @@
     <t>行く</t>
   </si>
   <si>
-    <t>行って</t>
-  </si>
-  <si>
-    <t>行った</t>
-  </si>
-  <si>
     <t>行かない</t>
   </si>
   <si>
@@ -1329,6 +1323,70 @@
   </si>
   <si>
     <t>渡そう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>いって</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>いった</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返す</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返して</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返した</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返さない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返します</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返そう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>焼く</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>焼いて</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>焼いた</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>焼かない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>焼きます</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>焼こう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>座ろう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乗ろう</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1396,7 +1454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1406,6 +1464,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1720,10 +1781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1750,10 +1811,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
@@ -1770,1531 +1831,1574 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>372</v>
+      <c r="F13" s="3" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F17" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
         <v>86</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>87</v>
       </c>
-      <c r="D18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" t="s">
-        <v>89</v>
-      </c>
       <c r="F18" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F19" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F20" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
         <v>82</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>83</v>
       </c>
-      <c r="D21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" t="s">
-        <v>85</v>
-      </c>
       <c r="F21" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
         <v>77</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>78</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>79</v>
       </c>
-      <c r="D22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" t="s">
-        <v>81</v>
-      </c>
       <c r="F22" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" t="s">
         <v>110</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>111</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>112</v>
       </c>
-      <c r="D23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" t="s">
-        <v>114</v>
-      </c>
       <c r="F23" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
         <v>115</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
         <v>116</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>117</v>
       </c>
-      <c r="D24" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" t="s">
-        <v>119</v>
-      </c>
       <c r="F24" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" t="s">
         <v>120</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>121</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>122</v>
       </c>
-      <c r="D25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" t="s">
-        <v>124</v>
-      </c>
       <c r="F25" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
         <v>125</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>126</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>127</v>
       </c>
-      <c r="D26" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" t="s">
-        <v>129</v>
-      </c>
       <c r="F26" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" t="s">
         <v>130</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>131</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>132</v>
       </c>
-      <c r="D27" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" t="s">
-        <v>134</v>
-      </c>
       <c r="F27" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" t="s">
         <v>135</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>136</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>137</v>
       </c>
-      <c r="D28" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" t="s">
-        <v>139</v>
-      </c>
       <c r="F28" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" t="s">
         <v>140</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>141</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>142</v>
       </c>
-      <c r="D29" t="s">
-        <v>143</v>
-      </c>
-      <c r="E29" t="s">
-        <v>144</v>
-      </c>
       <c r="F29" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" t="s">
         <v>145</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>146</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>147</v>
       </c>
-      <c r="D30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E30" t="s">
-        <v>149</v>
-      </c>
       <c r="F30" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" t="s">
         <v>150</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>151</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>152</v>
       </c>
-      <c r="D31" t="s">
-        <v>153</v>
-      </c>
-      <c r="E31" t="s">
-        <v>154</v>
-      </c>
       <c r="F31" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" t="s">
         <v>155</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>156</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>157</v>
       </c>
-      <c r="D32" t="s">
-        <v>158</v>
-      </c>
-      <c r="E32" t="s">
-        <v>159</v>
-      </c>
       <c r="F32" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" t="s">
         <v>160</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>161</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>162</v>
       </c>
-      <c r="D33" t="s">
-        <v>163</v>
-      </c>
-      <c r="E33" t="s">
-        <v>164</v>
-      </c>
       <c r="F33" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" t="s">
         <v>165</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
         <v>166</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>167</v>
       </c>
-      <c r="D34" t="s">
-        <v>168</v>
-      </c>
-      <c r="E34" t="s">
-        <v>169</v>
-      </c>
       <c r="F34" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" t="s">
         <v>170</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>171</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>172</v>
       </c>
-      <c r="D35" t="s">
-        <v>173</v>
-      </c>
-      <c r="E35" t="s">
-        <v>174</v>
-      </c>
       <c r="F35" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" t="s">
         <v>175</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>176</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>177</v>
       </c>
-      <c r="D36" t="s">
-        <v>178</v>
-      </c>
-      <c r="E36" t="s">
-        <v>179</v>
-      </c>
       <c r="F36" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" t="s">
         <v>180</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
         <v>181</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>182</v>
       </c>
-      <c r="D37" t="s">
-        <v>183</v>
-      </c>
-      <c r="E37" t="s">
-        <v>184</v>
-      </c>
       <c r="F37" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" t="s">
         <v>185</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
         <v>186</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>187</v>
       </c>
-      <c r="D38" t="s">
-        <v>188</v>
-      </c>
-      <c r="E38" t="s">
-        <v>189</v>
-      </c>
       <c r="F38" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" t="s">
         <v>190</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>191</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>192</v>
       </c>
-      <c r="D39" t="s">
-        <v>193</v>
-      </c>
-      <c r="E39" t="s">
-        <v>194</v>
-      </c>
       <c r="F39" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" t="s">
         <v>195</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
         <v>196</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>197</v>
       </c>
-      <c r="D40" t="s">
-        <v>198</v>
-      </c>
-      <c r="E40" t="s">
-        <v>199</v>
-      </c>
       <c r="F40" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" t="s">
         <v>200</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>201</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>202</v>
       </c>
-      <c r="D41" t="s">
-        <v>203</v>
-      </c>
-      <c r="E41" t="s">
-        <v>204</v>
-      </c>
       <c r="F41" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" t="s">
         <v>205</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D42" t="s">
         <v>206</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>207</v>
       </c>
-      <c r="D42" t="s">
-        <v>208</v>
-      </c>
-      <c r="E42" t="s">
-        <v>209</v>
-      </c>
       <c r="F42" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>208</v>
+      </c>
+      <c r="B43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" t="s">
         <v>210</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D43" t="s">
         <v>211</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>212</v>
       </c>
-      <c r="D43" t="s">
-        <v>213</v>
-      </c>
-      <c r="E43" t="s">
-        <v>214</v>
-      </c>
       <c r="F43" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
         <v>60</v>
       </c>
-      <c r="B44" t="s">
+      <c r="D44" t="s">
         <v>61</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>62</v>
       </c>
-      <c r="D44" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" t="s">
-        <v>64</v>
-      </c>
       <c r="F44" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>213</v>
+      </c>
+      <c r="B45" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" t="s">
         <v>215</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>216</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>217</v>
       </c>
-      <c r="D45" t="s">
-        <v>218</v>
-      </c>
-      <c r="E45" t="s">
-        <v>219</v>
-      </c>
       <c r="F45" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46" t="s">
+        <v>219</v>
+      </c>
+      <c r="C46" t="s">
         <v>220</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
         <v>221</v>
       </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
         <v>222</v>
       </c>
-      <c r="D46" t="s">
-        <v>223</v>
-      </c>
-      <c r="E46" t="s">
-        <v>224</v>
-      </c>
       <c r="F46" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>223</v>
+      </c>
+      <c r="B47" t="s">
+        <v>224</v>
+      </c>
+      <c r="C47" t="s">
         <v>225</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
         <v>226</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>227</v>
       </c>
-      <c r="D47" t="s">
-        <v>228</v>
-      </c>
-      <c r="E47" t="s">
-        <v>229</v>
-      </c>
       <c r="F47" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>228</v>
+      </c>
+      <c r="B48" t="s">
+        <v>229</v>
+      </c>
+      <c r="C48" t="s">
         <v>230</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>231</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>232</v>
       </c>
-      <c r="D48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E48" t="s">
-        <v>234</v>
-      </c>
       <c r="F48" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>233</v>
+      </c>
+      <c r="B49" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49" t="s">
         <v>235</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>236</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>237</v>
       </c>
-      <c r="D49" t="s">
-        <v>238</v>
-      </c>
-      <c r="E49" t="s">
-        <v>239</v>
-      </c>
       <c r="F49" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>238</v>
+      </c>
+      <c r="B50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C50" t="s">
         <v>240</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
         <v>241</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>242</v>
       </c>
-      <c r="D50" t="s">
-        <v>243</v>
-      </c>
-      <c r="E50" t="s">
-        <v>244</v>
-      </c>
       <c r="F50" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>243</v>
+      </c>
+      <c r="B51" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" t="s">
         <v>245</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
         <v>246</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
         <v>247</v>
       </c>
-      <c r="D51" t="s">
-        <v>248</v>
-      </c>
-      <c r="E51" t="s">
-        <v>249</v>
-      </c>
       <c r="F51" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>248</v>
+      </c>
+      <c r="B52" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" t="s">
         <v>250</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D52" t="s">
         <v>251</v>
       </c>
-      <c r="C52" t="s">
+      <c r="E52" t="s">
         <v>252</v>
       </c>
-      <c r="D52" t="s">
-        <v>253</v>
-      </c>
-      <c r="E52" t="s">
-        <v>254</v>
-      </c>
       <c r="F52" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>253</v>
+      </c>
+      <c r="B53" t="s">
+        <v>254</v>
+      </c>
+      <c r="C53" t="s">
         <v>255</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D53" t="s">
         <v>256</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>257</v>
       </c>
-      <c r="D53" t="s">
-        <v>258</v>
-      </c>
-      <c r="E53" t="s">
-        <v>259</v>
-      </c>
       <c r="F53" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>258</v>
+      </c>
+      <c r="B54" t="s">
+        <v>259</v>
+      </c>
+      <c r="C54" t="s">
         <v>260</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
         <v>261</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>262</v>
       </c>
-      <c r="D54" t="s">
-        <v>263</v>
-      </c>
-      <c r="E54" t="s">
-        <v>264</v>
-      </c>
       <c r="F54" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>263</v>
+      </c>
+      <c r="B55" t="s">
+        <v>264</v>
+      </c>
+      <c r="C55" t="s">
         <v>265</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D55" t="s">
         <v>266</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
         <v>267</v>
       </c>
-      <c r="D55" t="s">
-        <v>268</v>
-      </c>
-      <c r="E55" t="s">
-        <v>269</v>
-      </c>
       <c r="F55" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>268</v>
+      </c>
+      <c r="B56" t="s">
+        <v>269</v>
+      </c>
+      <c r="C56" t="s">
         <v>270</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" t="s">
         <v>271</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
         <v>272</v>
       </c>
-      <c r="D56" t="s">
-        <v>273</v>
-      </c>
-      <c r="E56" t="s">
-        <v>274</v>
-      </c>
       <c r="F56" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>273</v>
+      </c>
+      <c r="B57" t="s">
+        <v>274</v>
+      </c>
+      <c r="C57" t="s">
         <v>275</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D57" t="s">
         <v>276</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
         <v>277</v>
       </c>
-      <c r="D57" t="s">
-        <v>278</v>
-      </c>
-      <c r="E57" t="s">
-        <v>279</v>
-      </c>
       <c r="F57" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>278</v>
+      </c>
+      <c r="B58" t="s">
+        <v>279</v>
+      </c>
+      <c r="C58" t="s">
         <v>280</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D58" t="s">
         <v>281</v>
       </c>
-      <c r="C58" t="s">
+      <c r="E58" t="s">
         <v>282</v>
       </c>
-      <c r="D58" t="s">
-        <v>283</v>
-      </c>
-      <c r="E58" t="s">
-        <v>284</v>
-      </c>
       <c r="F58" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>283</v>
+      </c>
+      <c r="B59" t="s">
+        <v>284</v>
+      </c>
+      <c r="C59" t="s">
         <v>285</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D59" t="s">
         <v>286</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
         <v>287</v>
       </c>
-      <c r="D59" t="s">
-        <v>288</v>
-      </c>
-      <c r="E59" t="s">
-        <v>289</v>
-      </c>
       <c r="F59" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="F60" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>299</v>
-      </c>
       <c r="F61" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>304</v>
-      </c>
       <c r="F62" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>309</v>
-      </c>
       <c r="F63" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>314</v>
-      </c>
       <c r="F64" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>319</v>
-      </c>
       <c r="F65" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>324</v>
-      </c>
       <c r="F66" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="E67" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>329</v>
-      </c>
       <c r="F67" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="E68" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>334</v>
-      </c>
       <c r="F68" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="F69" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>344</v>
-      </c>
       <c r="F70" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="E71" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>354</v>
-      </c>
       <c r="F71" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="F72" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>367</v>
-      </c>
       <c r="F73" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="E74" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>377</v>
-      </c>
       <c r="F74" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="F75" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="E76" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="F76" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="E77" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="F77" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="E78" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="F78" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>401</v>
-      </c>
+    </row>
+    <row r="79" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A79" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A80" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A81" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\online web app deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239C9E7A-1FD0-46BE-AF7E-CB8D8F9B24BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E736CE07-1530-467E-87D3-82402D3D0E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="428">
   <si>
     <t>Dictionary Form</t>
   </si>
@@ -1387,6 +1387,54 @@
   </si>
   <si>
     <t>乗ろう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通る</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通う</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>とおって</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>とおった</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>かよって</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>かよった</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>とおらない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>とわわない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>とおります</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>かよいます</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>とおろう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>かよおう</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1781,10 +1829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3397,8 +3445,45 @@
         <v>413</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A81" s="3"/>
+    <row r="81" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A81" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A82" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>427</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\online web app deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E736CE07-1530-467E-87D3-82402D3D0E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDE30C6-DA62-4CF5-ADD4-3494E03D5459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="461">
   <si>
     <t>Dictionary Form</t>
   </si>
@@ -1418,10 +1418,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>とわわない</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>とおります</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1435,6 +1431,142 @@
   </si>
   <si>
     <t>かよおう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>送る</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上がる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下る</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下がる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>送って</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>送った</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通わない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>送らない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>送ります</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>送ろう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上がって</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上がった</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上がらない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上がります</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上がろう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下って</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下った</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下らない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下ります</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下ろう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下がって</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下がった</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下がらない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下がります</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下がろう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>始まろう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>困ろう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>謝ろう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集まる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集まって</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集まった</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集まらない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集まります</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集まろう</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1829,10 +1961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3281,8 +3413,8 @@
       <c r="E72" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>370</v>
+      <c r="F72" s="3" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
@@ -3301,8 +3433,8 @@
       <c r="E73" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>370</v>
+      <c r="F73" s="3" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
@@ -3321,8 +3453,8 @@
       <c r="E74" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>370</v>
+      <c r="F74" s="3" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
@@ -3459,10 +3591,10 @@
         <v>422</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
@@ -3476,13 +3608,113 @@
         <v>421</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F82" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A83" s="3" t="s">
         <v>427</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A84" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A85" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A86" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A87" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\online web app deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDE30C6-DA62-4CF5-ADD4-3494E03D5459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA42EC8-DE62-4C1B-94FE-887BCC45334D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="472">
   <si>
     <t>Dictionary Form</t>
   </si>
@@ -1567,6 +1567,50 @@
   </si>
   <si>
     <t>集まろう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会う</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会って</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>あった</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会わない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会います</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会おう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>言う</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>言って</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>言った</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>言わない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>言います</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1961,10 +2005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3717,6 +3761,46 @@
         <v>460</v>
       </c>
     </row>
+    <row r="88" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A88" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A89" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\online web app deployment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mptang\Desktop\local testing\online-web-app-deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA42EC8-DE62-4C1B-94FE-887BCC45334D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287B3742-7A94-4633-A85D-C95D70C9F1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
+    <workbookView xWindow="32565" yWindow="4020" windowWidth="21600" windowHeight="11295" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="474">
   <si>
     <t>Dictionary Form</t>
   </si>
@@ -1612,17 +1612,23 @@
   <si>
     <t>言います</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>払おう</t>
+  </si>
+  <si>
+    <t>渡ろう</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1631,14 +1637,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1693,7 +1699,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1709,9 +1715,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1749,7 +1755,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1855,7 +1861,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1997,7 +2003,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2007,11 +2013,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
@@ -2021,7 +2027,7 @@
     <col min="6" max="6" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2041,7 +2047,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="18.75">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2061,7 +2067,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="18.75">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2081,7 +2087,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="18.75">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2101,7 +2107,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2121,7 +2127,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="18.75">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -2141,7 +2147,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="18.75">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2161,7 +2167,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="18.75">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -2181,7 +2187,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="18.75">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -2201,7 +2207,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="18.75">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -2221,7 +2227,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="18.75">
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
@@ -2241,7 +2247,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="18.75">
       <c r="A12" s="2" t="s">
         <v>53</v>
       </c>
@@ -2261,7 +2267,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="18.75">
       <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
@@ -2281,7 +2287,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
@@ -2301,7 +2307,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -2321,7 +2327,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -2341,7 +2347,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -2361,7 +2367,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -2381,7 +2387,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -2401,7 +2407,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -2421,7 +2427,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -2441,7 +2447,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -2461,7 +2467,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -2481,7 +2487,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -2501,7 +2507,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -2521,7 +2527,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -2541,7 +2547,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -2561,7 +2567,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -2581,7 +2587,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -2601,7 +2607,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -2621,7 +2627,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>148</v>
       </c>
@@ -2641,7 +2647,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>153</v>
       </c>
@@ -2661,7 +2667,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>158</v>
       </c>
@@ -2681,7 +2687,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -2701,7 +2707,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -2721,7 +2727,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>173</v>
       </c>
@@ -2741,7 +2747,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>178</v>
       </c>
@@ -2761,7 +2767,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>183</v>
       </c>
@@ -2781,7 +2787,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>188</v>
       </c>
@@ -2801,7 +2807,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>193</v>
       </c>
@@ -2821,7 +2827,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>198</v>
       </c>
@@ -2841,7 +2847,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>203</v>
       </c>
@@ -2861,7 +2867,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>208</v>
       </c>
@@ -2881,7 +2887,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -2901,7 +2907,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>213</v>
       </c>
@@ -2921,7 +2927,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>218</v>
       </c>
@@ -2941,7 +2947,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>223</v>
       </c>
@@ -2961,7 +2967,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>228</v>
       </c>
@@ -2981,7 +2987,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>233</v>
       </c>
@@ -3001,7 +3007,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>238</v>
       </c>
@@ -3021,7 +3027,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>243</v>
       </c>
@@ -3041,7 +3047,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>248</v>
       </c>
@@ -3061,7 +3067,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>253</v>
       </c>
@@ -3081,7 +3087,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>258</v>
       </c>
@@ -3101,7 +3107,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>263</v>
       </c>
@@ -3121,7 +3127,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>268</v>
       </c>
@@ -3141,7 +3147,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>273</v>
       </c>
@@ -3161,7 +3167,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>278</v>
       </c>
@@ -3181,7 +3187,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>283</v>
       </c>
@@ -3201,7 +3207,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" ht="18.75">
       <c r="A60" s="3" t="s">
         <v>288</v>
       </c>
@@ -3221,7 +3227,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" ht="18.75">
       <c r="A61" s="3" t="s">
         <v>293</v>
       </c>
@@ -3241,7 +3247,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" ht="18.75">
       <c r="A62" s="3" t="s">
         <v>298</v>
       </c>
@@ -3261,7 +3267,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" ht="18.75">
       <c r="A63" s="3" t="s">
         <v>303</v>
       </c>
@@ -3281,7 +3287,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" ht="18.75">
       <c r="A64" s="3" t="s">
         <v>308</v>
       </c>
@@ -3301,7 +3307,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" ht="18.75">
       <c r="A65" s="3" t="s">
         <v>313</v>
       </c>
@@ -3321,7 +3327,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" ht="18.75">
       <c r="A66" s="3" t="s">
         <v>318</v>
       </c>
@@ -3341,7 +3347,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" ht="18.75">
       <c r="A67" s="3" t="s">
         <v>323</v>
       </c>
@@ -3361,7 +3367,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" ht="18.75">
       <c r="A68" s="3" t="s">
         <v>328</v>
       </c>
@@ -3381,7 +3387,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" ht="18.75">
       <c r="A69" s="3" t="s">
         <v>333</v>
       </c>
@@ -3401,7 +3407,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" ht="18.75">
       <c r="A70" s="3" t="s">
         <v>338</v>
       </c>
@@ -3418,10 +3424,10 @@
         <v>342</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="18.75">
       <c r="A71" s="3" t="s">
         <v>348</v>
       </c>
@@ -3438,10 +3444,10 @@
         <v>352</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="18.75">
       <c r="A72" s="3" t="s">
         <v>353</v>
       </c>
@@ -3461,7 +3467,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" ht="18.75">
       <c r="A73" s="3" t="s">
         <v>361</v>
       </c>
@@ -3481,7 +3487,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" ht="18.75">
       <c r="A74" s="3" t="s">
         <v>371</v>
       </c>
@@ -3501,7 +3507,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" ht="18.75">
       <c r="A75" s="3" t="s">
         <v>376</v>
       </c>
@@ -3521,7 +3527,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" ht="18.75">
       <c r="A76" s="3" t="s">
         <v>382</v>
       </c>
@@ -3541,7 +3547,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" ht="18.75">
       <c r="A77" s="3" t="s">
         <v>388</v>
       </c>
@@ -3561,7 +3567,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" ht="18.75">
       <c r="A78" s="3" t="s">
         <v>394</v>
       </c>
@@ -3581,7 +3587,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" ht="18.75">
       <c r="A79" s="3" t="s">
         <v>402</v>
       </c>
@@ -3601,7 +3607,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" ht="18.75">
       <c r="A80" s="3" t="s">
         <v>408</v>
       </c>
@@ -3621,7 +3627,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" ht="18.75">
       <c r="A81" s="3" t="s">
         <v>416</v>
       </c>
@@ -3641,7 +3647,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" ht="18.75">
       <c r="A82" s="3" t="s">
         <v>417</v>
       </c>
@@ -3661,7 +3667,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" ht="18.75">
       <c r="A83" s="3" t="s">
         <v>427</v>
       </c>
@@ -3681,7 +3687,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" ht="18.75">
       <c r="A84" s="3" t="s">
         <v>428</v>
       </c>
@@ -3701,7 +3707,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" ht="18.75">
       <c r="A85" s="3" t="s">
         <v>429</v>
       </c>
@@ -3721,7 +3727,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" ht="18.75">
       <c r="A86" s="3" t="s">
         <v>430</v>
       </c>
@@ -3741,7 +3747,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:6" ht="18.75">
       <c r="A87" s="3" t="s">
         <v>455</v>
       </c>
@@ -3761,7 +3767,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" ht="18.75">
       <c r="A88" s="3" t="s">
         <v>461</v>
       </c>
@@ -3781,7 +3787,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" ht="18.75">
       <c r="A89" s="3" t="s">
         <v>467</v>
       </c>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mptang\Desktop\local testing\online-web-app-deployment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\online web app deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287B3742-7A94-4633-A85D-C95D70C9F1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12766DC-62DA-42A1-AD29-8988F3D8FE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32565" yWindow="4020" windowWidth="21600" windowHeight="11295" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="475">
   <si>
     <t>Dictionary Form</t>
   </si>
@@ -39,18 +39,6 @@
     <t>Nai Form</t>
   </si>
   <si>
-    <t>食べる</t>
-  </si>
-  <si>
-    <t>食べて</t>
-  </si>
-  <si>
-    <t>食べた</t>
-  </si>
-  <si>
-    <t>食べない</t>
-  </si>
-  <si>
     <t>行く</t>
   </si>
   <si>
@@ -132,9 +120,6 @@
     <t>Masu Form</t>
   </si>
   <si>
-    <t>食べます</t>
-  </si>
-  <si>
     <t>行きます</t>
   </si>
   <si>
@@ -249,9 +234,6 @@
     <t>洗う</t>
   </si>
   <si>
-    <t>借りる</t>
-  </si>
-  <si>
     <t>割れる</t>
   </si>
   <si>
@@ -267,18 +249,6 @@
     <t>割れます</t>
   </si>
   <si>
-    <t>借りて</t>
-  </si>
-  <si>
-    <t>借りた</t>
-  </si>
-  <si>
-    <t>借りない</t>
-  </si>
-  <si>
-    <t>借ります</t>
-  </si>
-  <si>
     <t>置いて</t>
   </si>
   <si>
@@ -1114,10 +1084,6 @@
     <t>Volitional Form</t>
   </si>
   <si>
-    <t>食べよう</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>言おう</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1618,17 +1584,65 @@
   </si>
   <si>
     <t>渡ろう</t>
+  </si>
+  <si>
+    <t>運ぶ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>運んで</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>運んだ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>運ばない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>運びます</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>運ぼう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撮ろう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聞こう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>貸そう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>置こう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>売ろう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗おう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1637,14 +1651,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1699,7 +1713,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1715,9 +1729,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1755,7 +1769,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1861,7 +1875,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2003,7 +2017,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2011,13 +2025,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
@@ -2027,7 +2041,7 @@
     <col min="6" max="6" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2041,53 +2055,53 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>401</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2101,13 +2115,13 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2121,13 +2135,13 @@
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75">
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -2141,13 +2155,13 @@
         <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2161,13 +2175,13 @@
         <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -2181,33 +2195,33 @@
         <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75">
-      <c r="A9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.75">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -2224,10 +2238,10 @@
         <v>47</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.75">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
@@ -2244,10 +2258,10 @@
         <v>52</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.75">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>53</v>
       </c>
@@ -2264,10 +2278,10 @@
         <v>57</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.75">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
@@ -2283,191 +2297,191 @@
       <c r="E13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2" t="s">
+      <c r="F13" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>63</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="B18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
+      <c r="B19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
+      <c r="B20" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="B21" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="C21" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D21" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E21" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F21" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="B22" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C22" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D22" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E22" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" t="s">
-        <v>79</v>
-      </c>
       <c r="F22" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -2484,10 +2498,10 @@
         <v>112</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -2504,10 +2518,10 @@
         <v>117</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -2524,10 +2538,10 @@
         <v>122</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -2544,10 +2558,10 @@
         <v>127</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -2564,10 +2578,10 @@
         <v>132</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -2584,10 +2598,10 @@
         <v>137</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -2604,10 +2618,10 @@
         <v>142</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -2624,10 +2638,10 @@
         <v>147</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>148</v>
       </c>
@@ -2644,10 +2658,10 @@
         <v>152</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>153</v>
       </c>
@@ -2664,10 +2678,10 @@
         <v>157</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>158</v>
       </c>
@@ -2684,10 +2698,10 @@
         <v>162</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -2704,10 +2718,10 @@
         <v>167</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -2724,10 +2738,10 @@
         <v>172</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>173</v>
       </c>
@@ -2744,10 +2758,10 @@
         <v>177</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>178</v>
       </c>
@@ -2764,10 +2778,10 @@
         <v>182</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>183</v>
       </c>
@@ -2784,10 +2798,10 @@
         <v>187</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>188</v>
       </c>
@@ -2804,10 +2818,10 @@
         <v>192</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>193</v>
       </c>
@@ -2824,10 +2838,10 @@
         <v>197</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>198</v>
       </c>
@@ -2844,70 +2858,70 @@
         <v>202</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>203</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>204</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>205</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>206</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>207</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
+      <c r="F43" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>208</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>209</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>210</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>211</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>212</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" t="s">
-        <v>62</v>
-      </c>
       <c r="F44" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>213</v>
       </c>
@@ -2924,10 +2938,10 @@
         <v>217</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>218</v>
       </c>
@@ -2944,10 +2958,10 @@
         <v>222</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>223</v>
       </c>
@@ -2964,10 +2978,10 @@
         <v>227</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>228</v>
       </c>
@@ -2984,10 +2998,10 @@
         <v>232</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>233</v>
       </c>
@@ -3004,10 +3018,10 @@
         <v>237</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>238</v>
       </c>
@@ -3024,10 +3038,10 @@
         <v>242</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>243</v>
       </c>
@@ -3044,10 +3058,10 @@
         <v>247</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>248</v>
       </c>
@@ -3064,10 +3078,10 @@
         <v>252</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>253</v>
       </c>
@@ -3084,10 +3098,10 @@
         <v>257</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>258</v>
       </c>
@@ -3104,10 +3118,10 @@
         <v>262</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>263</v>
       </c>
@@ -3124,10 +3138,10 @@
         <v>267</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>268</v>
       </c>
@@ -3144,10 +3158,10 @@
         <v>272</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>273</v>
       </c>
@@ -3164,50 +3178,50 @@
         <v>277</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A58" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="3" t="s">
         <v>282</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A59" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="3" t="s">
         <v>287</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="18.75">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>288</v>
       </c>
@@ -3224,10 +3238,10 @@
         <v>292</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="18.75">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>293</v>
       </c>
@@ -3244,10 +3258,10 @@
         <v>297</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="18.75">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>298</v>
       </c>
@@ -3264,10 +3278,10 @@
         <v>302</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="18.75">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>303</v>
       </c>
@@ -3284,10 +3298,10 @@
         <v>307</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="18.75">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>308</v>
       </c>
@@ -3304,10 +3318,10 @@
         <v>312</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="18.75">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
         <v>313</v>
       </c>
@@ -3324,10 +3338,10 @@
         <v>317</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="18.75">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
         <v>318</v>
       </c>
@@ -3344,10 +3358,10 @@
         <v>322</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="18.75">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
         <v>323</v>
       </c>
@@ -3364,10 +3378,10 @@
         <v>327</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="18.75">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
         <v>328</v>
       </c>
@@ -3384,110 +3398,110 @@
         <v>332</v>
       </c>
       <c r="F68" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A69" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A70" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A71" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A72" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A73" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="18.75">
-      <c r="A69" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="18.75">
-      <c r="A70" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="18.75">
-      <c r="A71" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="18.75">
-      <c r="A72" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="18.75">
-      <c r="A73" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="18.75">
+    <row r="74" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>371</v>
       </c>
@@ -3503,113 +3517,113 @@
       <c r="E74" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="18.75">
+      <c r="F74" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="F75" s="4" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="18.75">
+      <c r="F75" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F76" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="18.75">
+      <c r="F76" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="18.75">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="18.75">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E79" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A80" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="18.75">
-      <c r="A80" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>409</v>
@@ -3618,58 +3632,58 @@
         <v>410</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="18.75">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>416</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="18.75">
+    <row r="82" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
         <v>417</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="18.75">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>431</v>
@@ -3678,133 +3692,113 @@
         <v>432</v>
       </c>
       <c r="D83" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="F83" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="F83" s="3" t="s">
+    </row>
+    <row r="84" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A84" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="18.75">
-      <c r="A84" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="B84" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="F84" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="18.75">
+    </row>
+    <row r="85" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="18.75">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="18.75">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="18.75">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="18.75">
-      <c r="A89" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="B89" s="3" t="s">
         <v>468</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\online web app deployment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mptang\Desktop\local testing\online-web-app-deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12766DC-62DA-42A1-AD29-8988F3D8FE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6248459B-D22E-433B-8719-02B0883A6E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
+    <workbookView xWindow="33300" yWindow="4320" windowWidth="21600" windowHeight="11295" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="484">
   <si>
     <t>Dictionary Form</t>
   </si>
@@ -1632,17 +1632,44 @@
   <si>
     <t>洗おう</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>言えば</t>
+  </si>
+  <si>
+    <t>飲めば</t>
+  </si>
+  <si>
+    <t>書けば</t>
+  </si>
+  <si>
+    <t>話せば</t>
+  </si>
+  <si>
+    <t>買えば</t>
+  </si>
+  <si>
+    <t>Ba Form</t>
+  </si>
+  <si>
+    <t>忘れれば</t>
+  </si>
+  <si>
+    <t>読めば</t>
+  </si>
+  <si>
+    <t>運べば</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1651,14 +1678,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1713,7 +1740,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1729,9 +1756,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1769,7 +1796,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1875,7 +1902,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2017,7 +2044,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2025,13 +2052,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
@@ -2039,9 +2066,10 @@
     <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="29.140625" customWidth="1"/>
     <col min="6" max="6" width="50.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2060,8 +2088,11 @@
       <c r="F1" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2080,8 +2111,11 @@
       <c r="F2" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G2" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2100,8 +2134,11 @@
       <c r="F3" s="3" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2120,8 +2157,11 @@
       <c r="F4" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G4" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2140,8 +2180,11 @@
       <c r="F5" s="3" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G5" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -2160,8 +2203,11 @@
       <c r="F6" s="3" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G6" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2180,8 +2226,11 @@
       <c r="F7" s="3" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G7" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -2200,8 +2249,11 @@
       <c r="F8" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G8" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -2220,8 +2272,11 @@
       <c r="F9" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G9" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -2240,8 +2295,11 @@
       <c r="F10" s="3" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G10" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75">
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
@@ -2260,8 +2318,11 @@
       <c r="F11" s="3" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G11" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75">
       <c r="A12" s="2" t="s">
         <v>53</v>
       </c>
@@ -2280,8 +2341,11 @@
       <c r="F12" s="3" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
@@ -2300,8 +2364,11 @@
       <c r="F13" s="4" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -2320,8 +2387,11 @@
       <c r="F14" s="4" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G14" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18.75">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -2340,8 +2410,11 @@
       <c r="F15" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G15" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18.75">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -2360,8 +2433,11 @@
       <c r="F16" s="3" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -2380,8 +2456,11 @@
       <c r="F17" s="4" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G17" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18.75">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -2400,8 +2479,11 @@
       <c r="F18" s="3" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G18" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18.75">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -2420,8 +2502,11 @@
       <c r="F19" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -2440,8 +2525,11 @@
       <c r="F20" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -2460,8 +2548,11 @@
       <c r="F21" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -2480,8 +2571,11 @@
       <c r="F22" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -2500,8 +2594,11 @@
       <c r="F23" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -2520,8 +2617,11 @@
       <c r="F24" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -2540,8 +2640,11 @@
       <c r="F25" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -2560,8 +2663,11 @@
       <c r="F26" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -2580,8 +2686,11 @@
       <c r="F27" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -2600,8 +2709,11 @@
       <c r="F28" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -2620,8 +2732,11 @@
       <c r="F29" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -2640,8 +2755,11 @@
       <c r="F30" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>148</v>
       </c>
@@ -2660,8 +2778,11 @@
       <c r="F31" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>153</v>
       </c>
@@ -2680,8 +2801,11 @@
       <c r="F32" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>158</v>
       </c>
@@ -2700,8 +2824,11 @@
       <c r="F33" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -2720,8 +2847,11 @@
       <c r="F34" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -2740,8 +2870,11 @@
       <c r="F35" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>173</v>
       </c>
@@ -2760,8 +2893,11 @@
       <c r="F36" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>178</v>
       </c>
@@ -2780,8 +2916,11 @@
       <c r="F37" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>183</v>
       </c>
@@ -2800,8 +2939,11 @@
       <c r="F38" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>188</v>
       </c>
@@ -2820,8 +2962,11 @@
       <c r="F39" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>193</v>
       </c>
@@ -2840,8 +2985,11 @@
       <c r="F40" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>198</v>
       </c>
@@ -2860,8 +3008,11 @@
       <c r="F41" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2880,8 +3031,11 @@
       <c r="F42" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>203</v>
       </c>
@@ -2900,8 +3054,11 @@
       <c r="F43" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>208</v>
       </c>
@@ -2920,8 +3077,11 @@
       <c r="F44" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>213</v>
       </c>
@@ -2940,8 +3100,11 @@
       <c r="F45" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>218</v>
       </c>
@@ -2960,8 +3123,11 @@
       <c r="F46" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>223</v>
       </c>
@@ -2980,8 +3146,11 @@
       <c r="F47" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>228</v>
       </c>
@@ -3000,8 +3169,11 @@
       <c r="F48" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>233</v>
       </c>
@@ -3020,8 +3192,11 @@
       <c r="F49" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>238</v>
       </c>
@@ -3040,8 +3215,11 @@
       <c r="F50" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>243</v>
       </c>
@@ -3060,8 +3238,11 @@
       <c r="F51" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>248</v>
       </c>
@@ -3080,8 +3261,11 @@
       <c r="F52" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>253</v>
       </c>
@@ -3100,8 +3284,11 @@
       <c r="F53" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>258</v>
       </c>
@@ -3120,8 +3307,11 @@
       <c r="F54" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>263</v>
       </c>
@@ -3140,8 +3330,11 @@
       <c r="F55" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>268</v>
       </c>
@@ -3160,8 +3353,11 @@
       <c r="F56" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>273</v>
       </c>
@@ -3180,8 +3376,11 @@
       <c r="F57" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G57" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18.75">
       <c r="A58" s="3" t="s">
         <v>278</v>
       </c>
@@ -3200,8 +3399,11 @@
       <c r="F58" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G58" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="18.75">
       <c r="A59" s="3" t="s">
         <v>283</v>
       </c>
@@ -3220,8 +3422,11 @@
       <c r="F59" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G59" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="18.75">
       <c r="A60" s="3" t="s">
         <v>288</v>
       </c>
@@ -3240,8 +3445,11 @@
       <c r="F60" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G60" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="18.75">
       <c r="A61" s="3" t="s">
         <v>293</v>
       </c>
@@ -3260,8 +3468,11 @@
       <c r="F61" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G61" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="18.75">
       <c r="A62" s="3" t="s">
         <v>298</v>
       </c>
@@ -3280,8 +3491,11 @@
       <c r="F62" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G62" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="18.75">
       <c r="A63" s="3" t="s">
         <v>303</v>
       </c>
@@ -3300,8 +3514,11 @@
       <c r="F63" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G63" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="18.75">
       <c r="A64" s="3" t="s">
         <v>308</v>
       </c>
@@ -3320,8 +3537,11 @@
       <c r="F64" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G64" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="18.75">
       <c r="A65" s="3" t="s">
         <v>313</v>
       </c>
@@ -3340,8 +3560,11 @@
       <c r="F65" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G65" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="18.75">
       <c r="A66" s="3" t="s">
         <v>318</v>
       </c>
@@ -3360,8 +3583,11 @@
       <c r="F66" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G66" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="18.75">
       <c r="A67" s="3" t="s">
         <v>323</v>
       </c>
@@ -3380,8 +3606,11 @@
       <c r="F67" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G67" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="18.75">
       <c r="A68" s="3" t="s">
         <v>328</v>
       </c>
@@ -3400,8 +3629,11 @@
       <c r="F68" s="4" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G68" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="18.75">
       <c r="A69" s="3" t="s">
         <v>337</v>
       </c>
@@ -3420,8 +3652,11 @@
       <c r="F69" s="4" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G69" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="18.75">
       <c r="A70" s="3" t="s">
         <v>342</v>
       </c>
@@ -3440,8 +3675,11 @@
       <c r="F70" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G70" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="18.75">
       <c r="A71" s="3" t="s">
         <v>350</v>
       </c>
@@ -3460,8 +3698,11 @@
       <c r="F71" s="3" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G71" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="18.75">
       <c r="A72" s="3" t="s">
         <v>360</v>
       </c>
@@ -3480,8 +3721,11 @@
       <c r="F72" s="3" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G72" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="18.75">
       <c r="A73" s="3" t="s">
         <v>365</v>
       </c>
@@ -3500,8 +3744,11 @@
       <c r="F73" s="4" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G73" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="18.75">
       <c r="A74" s="3" t="s">
         <v>371</v>
       </c>
@@ -3520,8 +3767,11 @@
       <c r="F74" s="4" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G74" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="18.75">
       <c r="A75" s="3" t="s">
         <v>377</v>
       </c>
@@ -3540,8 +3790,11 @@
       <c r="F75" s="3" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G75" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="18.75">
       <c r="A76" s="3" t="s">
         <v>383</v>
       </c>
@@ -3560,8 +3813,11 @@
       <c r="F76" s="3" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G76" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="18.75">
       <c r="A77" s="3" t="s">
         <v>391</v>
       </c>
@@ -3580,8 +3836,11 @@
       <c r="F77" s="3" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G77" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="18.75">
       <c r="A78" s="3" t="s">
         <v>397</v>
       </c>
@@ -3600,8 +3859,11 @@
       <c r="F78" s="3" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G78" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="18.75">
       <c r="A79" s="3" t="s">
         <v>405</v>
       </c>
@@ -3620,8 +3882,11 @@
       <c r="F79" s="3" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G79" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="18.75">
       <c r="A80" s="3" t="s">
         <v>406</v>
       </c>
@@ -3640,8 +3905,11 @@
       <c r="F80" s="3" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G80" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="18.75">
       <c r="A81" s="3" t="s">
         <v>416</v>
       </c>
@@ -3660,8 +3928,11 @@
       <c r="F81" s="3" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G81" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="18.75">
       <c r="A82" s="3" t="s">
         <v>417</v>
       </c>
@@ -3680,8 +3951,11 @@
       <c r="F82" s="3" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G82" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="18.75">
       <c r="A83" s="3" t="s">
         <v>418</v>
       </c>
@@ -3700,8 +3974,11 @@
       <c r="F83" s="3" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G83" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="18.75">
       <c r="A84" s="3" t="s">
         <v>419</v>
       </c>
@@ -3720,8 +3997,11 @@
       <c r="F84" s="3" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G84" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="18.75">
       <c r="A85" s="3" t="s">
         <v>444</v>
       </c>
@@ -3740,8 +4020,11 @@
       <c r="F85" s="3" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G85" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="18.75">
       <c r="A86" s="3" t="s">
         <v>450</v>
       </c>
@@ -3760,8 +4043,11 @@
       <c r="F86" s="3" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G86" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="18.75">
       <c r="A87" s="3" t="s">
         <v>456</v>
       </c>
@@ -3780,8 +4066,11 @@
       <c r="F87" s="3" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="G87" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="18.75">
       <c r="A88" s="3" t="s">
         <v>463</v>
       </c>
@@ -3799,6 +4088,9 @@
       </c>
       <c r="F88" s="3" t="s">
         <v>468</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mptang\Desktop\local testing\online-web-app-deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6248459B-D22E-433B-8719-02B0883A6E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8707CDD8-8AF0-4385-BF36-D859F326B20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33300" yWindow="4320" windowWidth="21600" windowHeight="11295" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
+    <workbookView xWindow="6975" yWindow="3570" windowWidth="21600" windowHeight="11295" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="505">
   <si>
     <t>Dictionary Form</t>
   </si>
@@ -1659,6 +1659,69 @@
   </si>
   <si>
     <t>運べば</t>
+  </si>
+  <si>
+    <t>起こる</t>
+  </si>
+  <si>
+    <t>起こって</t>
+  </si>
+  <si>
+    <t>起こった</t>
+  </si>
+  <si>
+    <t>起こらない</t>
+  </si>
+  <si>
+    <t>起こります</t>
+  </si>
+  <si>
+    <t>起ころう</t>
+  </si>
+  <si>
+    <t>起これば</t>
+  </si>
+  <si>
+    <t>進む</t>
+  </si>
+  <si>
+    <t>進んで</t>
+  </si>
+  <si>
+    <t>進んだ</t>
+  </si>
+  <si>
+    <t>進みます</t>
+  </si>
+  <si>
+    <t>進もう</t>
+  </si>
+  <si>
+    <t>進まない</t>
+  </si>
+  <si>
+    <t>進めば</t>
+  </si>
+  <si>
+    <t>助ける</t>
+  </si>
+  <si>
+    <t>助けて</t>
+  </si>
+  <si>
+    <t>助けた</t>
+  </si>
+  <si>
+    <t>助けない</t>
+  </si>
+  <si>
+    <t>助けます</t>
+  </si>
+  <si>
+    <t>助けよう</t>
+  </si>
+  <si>
+    <t>助ければ</t>
   </si>
 </sst>
 </file>
@@ -2052,10 +2115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4093,6 +4156,75 @@
         <v>483</v>
       </c>
     </row>
+    <row r="89" spans="1:7" ht="18.75">
+      <c r="A89" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="18.75">
+      <c r="A90" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="18.75">
+      <c r="A91" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mptang\Desktop\local testing\online-web-app-deployment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\local testing\online web app deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8707CDD8-8AF0-4385-BF36-D859F326B20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29670915-3F71-43EA-95A8-EAE5F0711D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="3570" windowWidth="21600" windowHeight="11295" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="519">
   <si>
     <t>Dictionary Form</t>
   </si>
@@ -1722,17 +1722,73 @@
   </si>
   <si>
     <t>助ければ</t>
+  </si>
+  <si>
+    <t>稼ぐ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稼いで</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稼いだ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稼がない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稼ぎます</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稼ごう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稼げば</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切れば</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>知れば</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飛べば</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>座れば</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乗れば</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撮れば</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聞けば</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1741,14 +1797,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1803,7 +1859,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1819,9 +1875,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1859,7 +1915,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1965,7 +2021,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2107,7 +2163,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2115,13 +2171,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
@@ -2132,7 +2188,7 @@
     <col min="7" max="7" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2155,7 +2211,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2178,7 +2234,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75">
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2201,7 +2257,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2224,7 +2280,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75">
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2247,7 +2303,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75">
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -2270,7 +2326,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75">
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2293,7 +2349,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75">
+    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -2316,7 +2372,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75">
+    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -2335,11 +2391,11 @@
       <c r="F9" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.75">
+      <c r="G9" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -2358,11 +2414,11 @@
       <c r="F10" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.75">
+      <c r="G10" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
@@ -2381,11 +2437,11 @@
       <c r="F11" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18.75">
+      <c r="G11" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>53</v>
       </c>
@@ -2404,11 +2460,11 @@
       <c r="F12" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
@@ -2428,10 +2484,10 @@
         <v>404</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -2450,11 +2506,11 @@
       <c r="F14" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18.75">
+      <c r="G14" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -2474,10 +2530,10 @@
         <v>470</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18.75">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -2500,7 +2556,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -2523,7 +2579,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75">
+    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -2546,7 +2602,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75">
+    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -2569,7 +2625,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -2592,7 +2648,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -2615,7 +2671,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -2638,7 +2694,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -2661,7 +2717,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -2684,7 +2740,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -2707,7 +2763,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -2730,7 +2786,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -2753,7 +2809,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -2776,7 +2832,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -2799,7 +2855,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -2822,7 +2878,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>148</v>
       </c>
@@ -2845,7 +2901,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>153</v>
       </c>
@@ -2868,7 +2924,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>158</v>
       </c>
@@ -2891,7 +2947,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -2914,7 +2970,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -2937,7 +2993,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>173</v>
       </c>
@@ -2960,7 +3016,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>178</v>
       </c>
@@ -2983,7 +3039,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>183</v>
       </c>
@@ -3006,7 +3062,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>188</v>
       </c>
@@ -3029,7 +3085,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>193</v>
       </c>
@@ -3052,7 +3108,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>198</v>
       </c>
@@ -3075,7 +3131,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -3098,7 +3154,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>203</v>
       </c>
@@ -3121,7 +3177,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>208</v>
       </c>
@@ -3144,7 +3200,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>213</v>
       </c>
@@ -3167,7 +3223,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>218</v>
       </c>
@@ -3190,7 +3246,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>223</v>
       </c>
@@ -3213,7 +3269,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>228</v>
       </c>
@@ -3236,7 +3292,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>233</v>
       </c>
@@ -3259,7 +3315,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>238</v>
       </c>
@@ -3282,7 +3338,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>243</v>
       </c>
@@ -3305,7 +3361,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>248</v>
       </c>
@@ -3328,7 +3384,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>253</v>
       </c>
@@ -3351,7 +3407,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>258</v>
       </c>
@@ -3374,7 +3430,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>263</v>
       </c>
@@ -3397,7 +3453,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>268</v>
       </c>
@@ -3420,7 +3476,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>273</v>
       </c>
@@ -3443,7 +3499,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="18.75">
+    <row r="58" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
         <v>278</v>
       </c>
@@ -3466,7 +3522,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="18.75">
+    <row r="59" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
         <v>283</v>
       </c>
@@ -3489,7 +3545,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="18.75">
+    <row r="60" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>288</v>
       </c>
@@ -3512,7 +3568,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="18.75">
+    <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>293</v>
       </c>
@@ -3535,7 +3591,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="18.75">
+    <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>298</v>
       </c>
@@ -3558,7 +3614,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="18.75">
+    <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>303</v>
       </c>
@@ -3581,7 +3637,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="18.75">
+    <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>308</v>
       </c>
@@ -3604,7 +3660,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="18.75">
+    <row r="65" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
         <v>313</v>
       </c>
@@ -3627,7 +3683,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="18.75">
+    <row r="66" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
         <v>318</v>
       </c>
@@ -3650,7 +3706,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="18.75">
+    <row r="67" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
         <v>323</v>
       </c>
@@ -3673,7 +3729,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="18.75">
+    <row r="68" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
         <v>328</v>
       </c>
@@ -3696,7 +3752,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="18.75">
+    <row r="69" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
         <v>337</v>
       </c>
@@ -3719,7 +3775,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="18.75">
+    <row r="70" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
         <v>342</v>
       </c>
@@ -3742,7 +3798,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="18.75">
+    <row r="71" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
         <v>350</v>
       </c>
@@ -3765,7 +3821,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="18.75">
+    <row r="72" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
         <v>360</v>
       </c>
@@ -3788,7 +3844,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="18.75">
+    <row r="73" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
         <v>365</v>
       </c>
@@ -3811,7 +3867,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="18.75">
+    <row r="74" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>371</v>
       </c>
@@ -3834,7 +3890,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="18.75">
+    <row r="75" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
         <v>377</v>
       </c>
@@ -3857,7 +3913,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="18.75">
+    <row r="76" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
         <v>383</v>
       </c>
@@ -3880,7 +3936,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="18.75">
+    <row r="77" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
         <v>391</v>
       </c>
@@ -3903,7 +3959,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="18.75">
+    <row r="78" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
         <v>397</v>
       </c>
@@ -3926,7 +3982,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="18.75">
+    <row r="79" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
         <v>405</v>
       </c>
@@ -3949,7 +4005,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="18.75">
+    <row r="80" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
         <v>406</v>
       </c>
@@ -3972,7 +4028,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="18.75">
+    <row r="81" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>416</v>
       </c>
@@ -3995,7 +4051,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="18.75">
+    <row r="82" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
         <v>417</v>
       </c>
@@ -4018,7 +4074,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="18.75">
+    <row r="83" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
         <v>418</v>
       </c>
@@ -4041,7 +4097,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="18.75">
+    <row r="84" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
         <v>419</v>
       </c>
@@ -4064,7 +4120,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="18.75">
+    <row r="85" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
         <v>444</v>
       </c>
@@ -4087,7 +4143,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="18.75">
+    <row r="86" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
         <v>450</v>
       </c>
@@ -4110,7 +4166,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="18.75">
+    <row r="87" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
         <v>456</v>
       </c>
@@ -4133,7 +4189,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="18.75">
+    <row r="88" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
         <v>463</v>
       </c>
@@ -4156,7 +4212,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="18.75">
+    <row r="89" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
         <v>484</v>
       </c>
@@ -4179,7 +4235,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="18.75">
+    <row r="90" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
         <v>491</v>
       </c>
@@ -4202,7 +4258,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="18.75">
+    <row r="91" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
         <v>498</v>
       </c>
@@ -4223,6 +4279,29 @@
       </c>
       <c r="G91" s="4" t="s">
         <v>504</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A92" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\local testing\online web app deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29670915-3F71-43EA-95A8-EAE5F0711D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259167B5-21FD-4813-9EDB-48085998384F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="554">
   <si>
     <t>Dictionary Form</t>
   </si>
@@ -1634,33 +1634,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>言えば</t>
-  </si>
-  <si>
-    <t>飲めば</t>
-  </si>
-  <si>
-    <t>書けば</t>
-  </si>
-  <si>
-    <t>話せば</t>
-  </si>
-  <si>
-    <t>買えば</t>
-  </si>
-  <si>
-    <t>Ba Form</t>
-  </si>
-  <si>
-    <t>忘れれば</t>
-  </si>
-  <si>
-    <t>読めば</t>
-  </si>
-  <si>
-    <t>運べば</t>
-  </si>
-  <si>
     <t>起こる</t>
   </si>
   <si>
@@ -1679,9 +1652,6 @@
     <t>起ころう</t>
   </si>
   <si>
-    <t>起これば</t>
-  </si>
-  <si>
     <t>進む</t>
   </si>
   <si>
@@ -1700,9 +1670,6 @@
     <t>進まない</t>
   </si>
   <si>
-    <t>進めば</t>
-  </si>
-  <si>
     <t>助ける</t>
   </si>
   <si>
@@ -1721,9 +1688,6 @@
     <t>助けよう</t>
   </si>
   <si>
-    <t>助ければ</t>
-  </si>
-  <si>
     <t>稼ぐ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1748,35 +1712,223 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>稼げば</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>切れば</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>知れば</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>飛べば</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>座れば</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乗れば</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>撮れば</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>聞けば</t>
+    <t>下げる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下げない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下げて</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下げた</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下げます</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下げよう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗える</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>置ける</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>売れる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聞ける</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>貸せる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>言える</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飲める</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>書ける</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>話せる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>買える</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘れられる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>読める</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切れる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>知れる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飛べる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>座れる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乗れる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撮れる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>運べる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>割れられる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>急げる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泳げる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待てる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持てる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>選べる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>開けられる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上げられんる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使える</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>起こける</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稼げる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>助けられる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>進める</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下げられる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引ける</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿ける</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲がれる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>違える</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>間違える</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>かぶれる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potential Form</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触れる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戻せる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>習える</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>並べる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教えられる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>かけられる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>住める</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>座る</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>届ける</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2171,10 +2323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2208,7 +2360,7 @@
         <v>333</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>480</v>
+        <v>544</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
@@ -2231,7 +2383,7 @@
         <v>334</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>475</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2254,7 +2406,7 @@
         <v>335</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>476</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2277,7 +2429,7 @@
         <v>336</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2300,7 +2452,7 @@
         <v>347</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>478</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2323,7 +2475,7 @@
         <v>348</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2346,7 +2498,7 @@
         <v>349</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>481</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2369,7 +2521,7 @@
         <v>355</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>482</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2392,7 +2544,7 @@
         <v>356</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2415,7 +2567,7 @@
         <v>357</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2438,7 +2590,7 @@
         <v>358</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2461,7 +2613,7 @@
         <v>403</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2484,7 +2636,7 @@
         <v>404</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2507,7 +2659,7 @@
         <v>469</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2530,7 +2682,7 @@
         <v>470</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2553,7 +2705,7 @@
         <v>471</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>359</v>
+        <v>509</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2576,7 +2728,7 @@
         <v>472</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>359</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2599,7 +2751,7 @@
         <v>473</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>359</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2622,7 +2774,7 @@
         <v>474</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>359</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2645,7 +2797,7 @@
         <v>359</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>359</v>
+        <v>524</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2668,10 +2820,10 @@
         <v>359</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -2690,11 +2842,11 @@
       <c r="F22" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -2713,11 +2865,11 @@
       <c r="F23" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -2736,11 +2888,11 @@
       <c r="F24" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -2759,11 +2911,11 @@
       <c r="F25" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -2782,11 +2934,11 @@
       <c r="F26" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -2805,11 +2957,11 @@
       <c r="F27" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -2828,8 +2980,8 @@
       <c r="F28" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>359</v>
+      <c r="G28" s="3" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2852,7 +3004,7 @@
         <v>359</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>359</v>
+        <v>538</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2875,10 +3027,10 @@
         <v>359</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>148</v>
       </c>
@@ -2897,8 +3049,8 @@
       <c r="F31" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>359</v>
+      <c r="G31" s="3" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2921,10 +3073,10 @@
         <v>359</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>158</v>
       </c>
@@ -2943,11 +3095,11 @@
       <c r="F33" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -2966,11 +3118,11 @@
       <c r="F34" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -2989,11 +3141,11 @@
       <c r="F35" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>173</v>
       </c>
@@ -3012,11 +3164,11 @@
       <c r="F36" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>178</v>
       </c>
@@ -3035,11 +3187,11 @@
       <c r="F37" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>183</v>
       </c>
@@ -3058,11 +3210,11 @@
       <c r="F38" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>188</v>
       </c>
@@ -3081,11 +3233,11 @@
       <c r="F39" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G39" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>193</v>
       </c>
@@ -3104,8 +3256,8 @@
       <c r="F40" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>359</v>
+      <c r="G40" s="3" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3128,12 +3280,12 @@
         <v>359</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>359</v>
+        <v>551</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>552</v>
       </c>
       <c r="B42" t="s">
         <v>54</v>
@@ -3151,7 +3303,7 @@
         <v>359</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>359</v>
+        <v>520</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3174,7 +3326,7 @@
         <v>359</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>359</v>
+        <v>553</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -4209,99 +4361,122 @@
         <v>468</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>483</v>
+        <v>523</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>490</v>
+        <v>533</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>504</v>
+        <v>535</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A92" s="3" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>511</v>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A93" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\local testing\online web app deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259167B5-21FD-4813-9EDB-48085998384F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2D4130-E94A-4733-B904-08002A0E80B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="568">
   <si>
     <t>Dictionary Form</t>
   </si>
@@ -861,26 +861,10 @@
     <t>立ちます</t>
   </si>
   <si>
-    <t>戻す</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戻して</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戻した</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>戻さない</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>戻します</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>吸う</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1929,6 +1913,78 @@
   </si>
   <si>
     <t>届ける</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戻って</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戻った</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戻ります</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戻ろう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戻れる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹ける</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降れる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>なれる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊べる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>着ける</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預ける</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預けて</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預けた</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預けらない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預けます</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預けよう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預けられる</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2323,10 +2379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2357,10 +2413,10 @@
         <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
@@ -2368,10 +2424,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -2380,10 +2436,10 @@
         <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2403,10 +2459,10 @@
         <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2426,10 +2482,10 @@
         <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2449,10 +2505,10 @@
         <v>34</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2472,10 +2528,10 @@
         <v>35</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2495,10 +2551,10 @@
         <v>36</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2518,10 +2574,10 @@
         <v>37</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2541,10 +2597,10 @@
         <v>42</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2564,10 +2620,10 @@
         <v>47</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2587,10 +2643,10 @@
         <v>52</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2610,10 +2666,10 @@
         <v>57</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2633,10 +2689,10 @@
         <v>62</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2656,10 +2712,10 @@
         <v>83</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2679,10 +2735,10 @@
         <v>85</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2702,10 +2758,10 @@
         <v>89</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2725,10 +2781,10 @@
         <v>77</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2748,10 +2804,10 @@
         <v>93</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2771,10 +2827,10 @@
         <v>97</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2794,10 +2850,10 @@
         <v>73</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2817,10 +2873,10 @@
         <v>102</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2840,10 +2896,10 @@
         <v>107</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2863,10 +2919,10 @@
         <v>112</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2886,10 +2942,10 @@
         <v>117</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2909,10 +2965,10 @@
         <v>122</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2932,10 +2988,10 @@
         <v>127</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2955,10 +3011,10 @@
         <v>132</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2978,10 +3034,10 @@
         <v>137</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3001,10 +3057,10 @@
         <v>142</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3024,10 +3080,10 @@
         <v>147</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3047,10 +3103,10 @@
         <v>152</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3070,10 +3126,10 @@
         <v>157</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3093,10 +3149,10 @@
         <v>162</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3116,10 +3172,10 @@
         <v>167</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3139,1344 +3195,1367 @@
         <v>172</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>173</v>
-      </c>
-      <c r="B36" t="s">
-        <v>174</v>
+        <v>550</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>551</v>
       </c>
       <c r="C36" t="s">
-        <v>175</v>
-      </c>
-      <c r="D36" t="s">
-        <v>176</v>
-      </c>
-      <c r="E36" t="s">
-        <v>177</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>359</v>
+        <v>552</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>554</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B37" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D37" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E37" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B38" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C38" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D38" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E38" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B39" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D39" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E39" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" t="s">
+        <v>189</v>
+      </c>
+      <c r="C40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" t="s">
+        <v>192</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
         <v>193</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>194</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>195</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>196</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E41" t="s">
         <v>197</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>198</v>
-      </c>
-      <c r="B41" t="s">
-        <v>199</v>
-      </c>
-      <c r="C41" t="s">
-        <v>200</v>
-      </c>
-      <c r="D41" t="s">
-        <v>201</v>
-      </c>
-      <c r="E41" t="s">
-        <v>202</v>
-      </c>
       <c r="F41" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>551</v>
+        <v>355</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>552</v>
+        <v>198</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>199</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="E42" t="s">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>520</v>
+        <v>547</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>203</v>
+        <v>548</v>
       </c>
       <c r="B43" t="s">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>205</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="E43" t="s">
-        <v>207</v>
+        <v>57</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>553</v>
+        <v>516</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>203</v>
+      </c>
+      <c r="B44" t="s">
+        <v>204</v>
+      </c>
+      <c r="C44" t="s">
+        <v>205</v>
+      </c>
+      <c r="D44" t="s">
+        <v>206</v>
+      </c>
+      <c r="E44" t="s">
+        <v>207</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
         <v>208</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>209</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>210</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>211</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>212</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="F45" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
         <v>213</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>214</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>215</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>216</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>217</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>218</v>
-      </c>
-      <c r="B46" t="s">
-        <v>219</v>
-      </c>
-      <c r="C46" t="s">
-        <v>220</v>
-      </c>
-      <c r="D46" t="s">
-        <v>221</v>
-      </c>
-      <c r="E46" t="s">
-        <v>222</v>
-      </c>
       <c r="F46" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>218</v>
+      </c>
+      <c r="B47" t="s">
+        <v>219</v>
+      </c>
+      <c r="C47" t="s">
+        <v>220</v>
+      </c>
+      <c r="D47" t="s">
+        <v>221</v>
+      </c>
+      <c r="E47" t="s">
+        <v>222</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
         <v>223</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>224</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>225</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>226</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>227</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>228</v>
-      </c>
-      <c r="B48" t="s">
-        <v>229</v>
-      </c>
-      <c r="C48" t="s">
-        <v>230</v>
-      </c>
-      <c r="D48" t="s">
-        <v>231</v>
-      </c>
-      <c r="E48" t="s">
-        <v>232</v>
-      </c>
       <c r="F48" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B49" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C49" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D49" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E49" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>359</v>
+        <v>560</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B50" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C50" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D50" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E50" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B51" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C51" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D51" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E51" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B52" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C52" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D52" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E52" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B53" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C53" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D53" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E53" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B54" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C54" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D54" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E54" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B55" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C55" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D55" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E55" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B56" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C56" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D56" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E56" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>268</v>
+      </c>
+      <c r="B57" t="s">
+        <v>269</v>
+      </c>
+      <c r="C57" t="s">
+        <v>270</v>
+      </c>
+      <c r="D57" t="s">
+        <v>271</v>
+      </c>
+      <c r="E57" t="s">
+        <v>272</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>273</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>274</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>275</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>276</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>277</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A58" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="F58" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>287</v>
-      </c>
       <c r="F59" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>292</v>
-      </c>
       <c r="F60" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="F61" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>302</v>
-      </c>
       <c r="F62" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>307</v>
-      </c>
       <c r="F63" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="F64" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>317</v>
-      </c>
       <c r="F65" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>322</v>
-      </c>
       <c r="F66" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>327</v>
-      </c>
       <c r="F67" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>332</v>
-      </c>
       <c r="F68" s="4" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>341</v>
-      </c>
       <c r="F69" s="4" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>346</v>
-      </c>
       <c r="F70" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>354</v>
-      </c>
       <c r="F71" s="3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>364</v>
-      </c>
       <c r="F72" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="F73" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>370</v>
-      </c>
       <c r="G73" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="F74" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="G74" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>382</v>
-      </c>
       <c r="G75" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="F76" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>388</v>
-      </c>
       <c r="G76" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="F77" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>396</v>
-      </c>
       <c r="G77" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="F78" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>402</v>
-      </c>
       <c r="G78" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="E79" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>412</v>
-      </c>
       <c r="F79" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="D80" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>413</v>
-      </c>
       <c r="F80" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="C81" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="F81" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>425</v>
-      </c>
       <c r="G81" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>430</v>
-      </c>
       <c r="G82" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>435</v>
-      </c>
       <c r="G83" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>440</v>
-      </c>
       <c r="G84" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="F85" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>449</v>
-      </c>
       <c r="G85" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="F86" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>455</v>
-      </c>
       <c r="G86" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>460</v>
-      </c>
       <c r="F87" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="F88" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>468</v>
-      </c>
       <c r="G88" s="4" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="F89" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>480</v>
-      </c>
       <c r="G89" s="4" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>485</v>
-      </c>
       <c r="G90" s="4" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="F91" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>492</v>
-      </c>
       <c r="G91" s="4" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A92" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="F92" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>498</v>
-      </c>
       <c r="G92" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A93" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="D93" s="3" t="s">
+      <c r="F93" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>504</v>
-      </c>
       <c r="G93" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A94" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\local testing\online web app deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2D4130-E94A-4733-B904-08002A0E80B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F42E61-6112-4475-AE6A-FE78F8438748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="590">
   <si>
     <t>Dictionary Form</t>
   </si>
@@ -1985,6 +1985,94 @@
   </si>
   <si>
     <t>預けられる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>見られる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帰れる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泣ける</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会える</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集まれる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迎える</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迎えて</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迎えた</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迎えない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迎えます</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迎えよう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迎えられる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>決まる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>決まって</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>決まった</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>決まらない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>決まります</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>決まろう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>決まれる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登れる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歩ける</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいれる</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2379,10 +2467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3543,7 +3631,7 @@
         <v>355</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>355</v>
+        <v>568</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3566,7 +3654,7 @@
         <v>355</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>355</v>
+        <v>569</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3589,10 +3677,10 @@
         <v>355</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>248</v>
       </c>
@@ -3611,8 +3699,8 @@
       <c r="F53" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>355</v>
+      <c r="G53" s="3" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3635,10 +3723,10 @@
         <v>355</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>258</v>
       </c>
@@ -3657,8 +3745,8 @@
       <c r="F55" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G55" s="4" t="s">
-        <v>355</v>
+      <c r="G55" s="3" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -4347,8 +4435,8 @@
       <c r="F85" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>355</v>
+      <c r="G85" s="3" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4370,8 +4458,8 @@
       <c r="F86" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="G86" s="4" t="s">
-        <v>355</v>
+      <c r="G86" s="3" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4393,8 +4481,8 @@
       <c r="F87" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="G87" s="4" t="s">
-        <v>355</v>
+      <c r="G87" s="3" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4556,6 +4644,52 @@
       </c>
       <c r="G94" s="3" t="s">
         <v>567</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A95" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A96" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\local testing\online web app deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F42E61-6112-4475-AE6A-FE78F8438748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FBD3A8-4A2B-412E-AE4F-8F51B246CD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
+    <workbookView xWindow="13980" yWindow="2370" windowWidth="12075" windowHeight="10935" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="604">
   <si>
     <t>Dictionary Form</t>
   </si>
@@ -2073,6 +2073,62 @@
   </si>
   <si>
     <t>はいれる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引き出す</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引き出して</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引き出した</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引き出さない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引き出します</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引き出そう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引き出せる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引っ越す</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引っ越して</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引っ越した</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引っ越さない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引っ越します</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引っ越そう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引っ越せる</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2467,10 +2523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4692,6 +4748,52 @@
         <v>586</v>
       </c>
     </row>
+    <row r="97" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A97" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A98" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\local testing\online web app deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FBD3A8-4A2B-412E-AE4F-8F51B246CD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6058D6C-A3D8-41FC-84FB-E012FDC4B5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13980" yWindow="2370" windowWidth="12075" windowHeight="10935" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="623">
   <si>
     <t>Dictionary Form</t>
   </si>
@@ -1880,10 +1880,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>触れる</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>戻せる</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2129,6 +2125,86 @@
   </si>
   <si>
     <t>引っ越せる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>さわれる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>走られる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>働ける</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立てる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸える</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降りられる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咲ける</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作れる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱げる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>壊せる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>閉まれる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>止まれる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>探せる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾う</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾って</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾った</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾わない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾います</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾おう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾える</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2523,10 +2599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3342,30 +3418,30 @@
         <v>355</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>541</v>
+        <v>603</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
+        <v>549</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" t="s">
         <v>551</v>
-      </c>
-      <c r="C36" t="s">
-        <v>552</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>278</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>554</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3388,7 +3464,7 @@
         <v>355</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3411,7 +3487,7 @@
         <v>355</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3434,7 +3510,7 @@
         <v>355</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3457,7 +3533,7 @@
         <v>355</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3480,7 +3556,7 @@
         <v>355</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3503,12 +3579,12 @@
         <v>355</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B43" t="s">
         <v>54</v>
@@ -3549,7 +3625,7 @@
         <v>355</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3572,7 +3648,7 @@
         <v>355</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3595,7 +3671,7 @@
         <v>355</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3618,7 +3694,7 @@
         <v>355</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3641,7 +3717,7 @@
         <v>355</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3664,7 +3740,7 @@
         <v>355</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3687,7 +3763,7 @@
         <v>355</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3710,7 +3786,7 @@
         <v>355</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3733,7 +3809,7 @@
         <v>355</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3756,7 +3832,7 @@
         <v>355</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3779,7 +3855,7 @@
         <v>355</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3802,10 +3878,10 @@
         <v>355</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>263</v>
       </c>
@@ -3824,11 +3900,11 @@
       <c r="F56" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G56" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>268</v>
       </c>
@@ -3847,11 +3923,11 @@
       <c r="F57" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G57" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>273</v>
       </c>
@@ -3870,8 +3946,8 @@
       <c r="F58" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>355</v>
+      <c r="G58" s="3" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3893,8 +3969,8 @@
       <c r="F59" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G59" s="4" t="s">
-        <v>355</v>
+      <c r="G59" s="3" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3916,8 +3992,8 @@
       <c r="F60" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G60" s="4" t="s">
-        <v>355</v>
+      <c r="G60" s="3" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3939,8 +4015,8 @@
       <c r="F61" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G61" s="4" t="s">
-        <v>355</v>
+      <c r="G61" s="3" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3962,8 +4038,8 @@
       <c r="F62" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G62" s="4" t="s">
-        <v>355</v>
+      <c r="G62" s="3" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3986,7 +4062,7 @@
         <v>355</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>355</v>
+        <v>611</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4008,8 +4084,8 @@
       <c r="F64" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G64" s="4" t="s">
-        <v>355</v>
+      <c r="G64" s="3" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4031,8 +4107,8 @@
       <c r="F65" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>355</v>
+      <c r="G65" s="3" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4054,8 +4130,8 @@
       <c r="F66" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G66" s="4" t="s">
-        <v>355</v>
+      <c r="G66" s="3" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4077,8 +4153,8 @@
       <c r="F67" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G67" s="4" t="s">
-        <v>355</v>
+      <c r="G67" s="3" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4492,7 +4568,7 @@
         <v>445</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4515,7 +4591,7 @@
         <v>451</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4681,117 +4757,140 @@
     </row>
     <row r="94" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="E94" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="F94" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="G94" s="3" t="s">
         <v>566</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="E95" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="F95" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="G95" s="3" t="s">
         <v>578</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="C96" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="E96" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="F96" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="G96" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="E97" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="F97" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="G97" s="3" t="s">
         <v>595</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A98" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="D98" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="E98" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="F98" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="F98" s="3" t="s">
+      <c r="G98" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="G98" s="3" t="s">
-        <v>603</v>
+    </row>
+    <row r="99" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A99" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>622</v>
       </c>
     </row>
   </sheetData>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\local testing\online web app deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6058D6C-A3D8-41FC-84FB-E012FDC4B5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BA062E-5892-4B50-B619-8BFD5AE69996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="651">
   <si>
     <t>Dictionary Form</t>
   </si>
@@ -2205,6 +2205,117 @@
   </si>
   <si>
     <t>拾える</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄る</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄って</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄った</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄らない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄ります</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄ろう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄れる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考える</t>
+  </si>
+  <si>
+    <t>考えて</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考えた</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考えない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考えます</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考えよう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考えられる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治す</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治して</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治した</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治さない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治します</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治そう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治せる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治る</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治って</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治った</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治らない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治ります</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治ろう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治れる</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2599,10 +2710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4893,6 +5004,98 @@
         <v>622</v>
       </c>
     </row>
+    <row r="100" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A100" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>630</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A102" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A103" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\local testing\online web app deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BA062E-5892-4B50-B619-8BFD5AE69996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DE6183-C3AD-4518-B068-14E44A48600A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="672">
   <si>
     <t>Dictionary Form</t>
   </si>
@@ -2316,6 +2316,89 @@
   </si>
   <si>
     <t>治れる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落とす</t>
+  </si>
+  <si>
+    <t>落として</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落とした</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落とさない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落とします</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落とそう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落とせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落ちる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落ちて</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落ちた</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落ちない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落ちます</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落ちよう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落ちられる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>残る</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>残って</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>残った</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>残らない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>残ります</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>残ろう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>残れる</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2710,10 +2793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5096,6 +5179,75 @@
         <v>650</v>
       </c>
     </row>
+    <row r="104" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>651</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A105" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A106" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\local testing\online web app deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DE6183-C3AD-4518-B068-14E44A48600A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5F1235-836A-4573-A3CA-41EC7DEE8F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="696">
   <si>
     <t>Dictionary Form</t>
   </si>
@@ -2399,6 +2399,102 @@
   </si>
   <si>
     <t>残れる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>誘う</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>誘って</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>誘った</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>誘わない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>誘います</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>誘おう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>誘える</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡れる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>払える</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>謝れる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>困れる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>始まれる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>終われる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掛れる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>押せる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡せる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返せる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>焼ける</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>とおれる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>かよえる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>送れる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上がれる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下ろせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下がれる</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2793,10 +2889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2808,6 +2904,7 @@
     <col min="5" max="5" width="29.140625" customWidth="1"/>
     <col min="6" max="6" width="50.28515625" customWidth="1"/>
     <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -4370,8 +4467,8 @@
       <c r="F68" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="G68" s="4" t="s">
-        <v>355</v>
+      <c r="G68" s="3" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4393,8 +4490,8 @@
       <c r="F69" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>355</v>
+      <c r="G69" s="3" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4416,8 +4513,8 @@
       <c r="F70" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>355</v>
+      <c r="G70" s="3" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4439,8 +4536,8 @@
       <c r="F71" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>355</v>
+      <c r="G71" s="3" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4462,8 +4559,8 @@
       <c r="F72" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="G72" s="4" t="s">
-        <v>355</v>
+      <c r="G72" s="3" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4485,8 +4582,8 @@
       <c r="F73" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="G73" s="4" t="s">
-        <v>355</v>
+      <c r="G73" s="3" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4509,7 +4606,7 @@
         <v>372</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>355</v>
+        <v>685</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4531,8 +4628,8 @@
       <c r="F75" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>355</v>
+      <c r="G75" s="3" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4554,8 +4651,8 @@
       <c r="F76" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="G76" s="4" t="s">
-        <v>355</v>
+      <c r="G76" s="3" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4578,7 +4675,7 @@
         <v>392</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>355</v>
+        <v>688</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4600,8 +4697,8 @@
       <c r="F78" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="G78" s="4" t="s">
-        <v>355</v>
+      <c r="G78" s="3" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4623,8 +4720,8 @@
       <c r="F79" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="G79" s="4" t="s">
-        <v>355</v>
+      <c r="G79" s="3" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4646,8 +4743,8 @@
       <c r="F80" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="G80" s="4" t="s">
-        <v>355</v>
+      <c r="G80" s="3" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4669,8 +4766,8 @@
       <c r="F81" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="G81" s="4" t="s">
-        <v>355</v>
+      <c r="G81" s="3" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4692,8 +4789,8 @@
       <c r="F82" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="G82" s="4" t="s">
-        <v>355</v>
+      <c r="G82" s="3" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4715,8 +4812,8 @@
       <c r="F83" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="G83" s="4" t="s">
-        <v>355</v>
+      <c r="G83" s="3" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4738,8 +4835,8 @@
       <c r="F84" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="G84" s="4" t="s">
-        <v>355</v>
+      <c r="G84" s="3" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -5246,6 +5343,29 @@
       </c>
       <c r="G106" s="3" t="s">
         <v>671</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A107" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>678</v>
       </c>
     </row>
   </sheetData>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\local testing\online web app deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DE6183-C3AD-4518-B068-14E44A48600A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFADB37-C7C7-45C1-BF42-F8A15DCC73AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="714">
   <si>
     <t>Dictionary Form</t>
   </si>
@@ -2399,6 +2399,174 @@
   </si>
   <si>
     <t>残れる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>誘う</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>誘って</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>誘った</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>誘わない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>誘います</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>誘おう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>誘える</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡れる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>払える</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>謝れる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>困れる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>始まれる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>終われる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掛れる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>押せる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡せる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返せる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>焼ける</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>とおれる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>かよえる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>送れる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上がれる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下ろせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下がれる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>答える</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>答えて</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>答えた</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>答えない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>答えます</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>答えよう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>答えられる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passive Form</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行こう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行ける</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行かれる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>残す</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>残して</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>残した</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>残さない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>残します</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>残そう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>残せる</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2793,10 +2961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2808,9 +2976,10 @@
     <col min="5" max="5" width="29.140625" customWidth="1"/>
     <col min="6" max="6" width="50.28515625" customWidth="1"/>
     <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2832,8 +3001,11 @@
       <c r="G1" s="1" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2850,13 +3022,16 @@
         <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>330</v>
+        <v>704</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+        <v>705</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2879,7 +3054,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2902,7 +3077,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2925,7 +3100,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -2948,7 +3123,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2971,7 +3146,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -2994,7 +3169,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -3017,7 +3192,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -3040,7 +3215,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
@@ -3063,7 +3238,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>53</v>
       </c>
@@ -3086,7 +3261,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
@@ -3109,7 +3284,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -3132,7 +3307,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -3155,7 +3330,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -4370,8 +4545,8 @@
       <c r="F68" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="G68" s="4" t="s">
-        <v>355</v>
+      <c r="G68" s="3" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4393,8 +4568,8 @@
       <c r="F69" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>355</v>
+      <c r="G69" s="3" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4416,8 +4591,8 @@
       <c r="F70" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>355</v>
+      <c r="G70" s="3" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4439,8 +4614,8 @@
       <c r="F71" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>355</v>
+      <c r="G71" s="3" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4462,8 +4637,8 @@
       <c r="F72" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="G72" s="4" t="s">
-        <v>355</v>
+      <c r="G72" s="3" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4485,8 +4660,8 @@
       <c r="F73" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="G73" s="4" t="s">
-        <v>355</v>
+      <c r="G73" s="3" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4509,7 +4684,7 @@
         <v>372</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>355</v>
+        <v>685</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4531,8 +4706,8 @@
       <c r="F75" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>355</v>
+      <c r="G75" s="3" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4554,8 +4729,8 @@
       <c r="F76" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="G76" s="4" t="s">
-        <v>355</v>
+      <c r="G76" s="3" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4578,7 +4753,7 @@
         <v>392</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>355</v>
+        <v>688</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4600,8 +4775,8 @@
       <c r="F78" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="G78" s="4" t="s">
-        <v>355</v>
+      <c r="G78" s="3" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4623,8 +4798,8 @@
       <c r="F79" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="G79" s="4" t="s">
-        <v>355</v>
+      <c r="G79" s="3" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4646,8 +4821,8 @@
       <c r="F80" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="G80" s="4" t="s">
-        <v>355</v>
+      <c r="G80" s="3" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4669,8 +4844,8 @@
       <c r="F81" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="G81" s="4" t="s">
-        <v>355</v>
+      <c r="G81" s="3" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4692,8 +4867,8 @@
       <c r="F82" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="G82" s="4" t="s">
-        <v>355</v>
+      <c r="G82" s="3" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4715,8 +4890,8 @@
       <c r="F83" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="G83" s="4" t="s">
-        <v>355</v>
+      <c r="G83" s="3" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4738,8 +4913,8 @@
       <c r="F84" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="G84" s="4" t="s">
-        <v>355</v>
+      <c r="G84" s="3" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -5246,6 +5421,75 @@
       </c>
       <c r="G106" s="3" t="s">
         <v>671</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A107" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A108" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A109" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>713</v>
       </c>
     </row>
   </sheetData>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\local testing\online web app deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFADB37-C7C7-45C1-BF42-F8A15DCC73AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE012056-42B1-437F-B4B3-612150C1D8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
@@ -2964,7 +2964,7 @@
   <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\local testing\online web app deployment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mptang\Desktop\local testing\online-web-app-deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE012056-42B1-437F-B4B3-612150C1D8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADC2F69-A063-4D3C-9EE5-5AB95DA6F6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
+    <workbookView xWindow="31845" yWindow="3705" windowWidth="21600" windowHeight="11295" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="728">
   <si>
     <t>Dictionary Form</t>
   </si>
@@ -2568,17 +2568,59 @@
   <si>
     <t>残せる</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行う</t>
+  </si>
+  <si>
+    <t>おこなって</t>
+  </si>
+  <si>
+    <t>おこなった</t>
+  </si>
+  <si>
+    <t>行わない</t>
+  </si>
+  <si>
+    <t>行います</t>
+  </si>
+  <si>
+    <t>行おう</t>
+  </si>
+  <si>
+    <t>行える</t>
+  </si>
+  <si>
+    <t>巻き込む</t>
+  </si>
+  <si>
+    <t>巻き込んで</t>
+  </si>
+  <si>
+    <t>巻き込んだ</t>
+  </si>
+  <si>
+    <t>巻き込まない</t>
+  </si>
+  <si>
+    <t>巻き込みます</t>
+  </si>
+  <si>
+    <t>巻き込もう</t>
+  </si>
+  <si>
+    <t>巻き込める</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2587,14 +2629,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2649,7 +2691,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2665,9 +2707,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2705,7 +2747,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2811,7 +2853,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2953,7 +2995,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2961,13 +3003,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
@@ -2979,7 +3021,7 @@
     <col min="8" max="8" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3005,7 +3047,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3031,7 +3073,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="18.75">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3054,7 +3096,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3077,7 +3119,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="18.75">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3100,7 +3142,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="18.75">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -3123,7 +3165,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="18.75">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -3146,7 +3188,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="18.75">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -3169,7 +3211,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="18.75">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -3192,7 +3234,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="18.75">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -3215,7 +3257,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="18.75">
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
@@ -3238,7 +3280,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="18.75">
       <c r="A12" s="2" t="s">
         <v>53</v>
       </c>
@@ -3261,7 +3303,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
@@ -3284,7 +3326,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="18.75">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -3307,7 +3349,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="18.75">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -3330,7 +3372,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="18.75">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -3353,7 +3395,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -3376,7 +3418,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="18.75">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -3399,7 +3441,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="18.75">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -3422,7 +3464,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -3445,7 +3487,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -3468,7 +3510,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="18.75">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -3491,7 +3533,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="18.75">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -3514,7 +3556,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="18.75">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -3537,7 +3579,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="18.75">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -3560,7 +3602,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="18.75">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -3583,7 +3625,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="18.75">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -3606,7 +3648,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="18.75">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -3629,7 +3671,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -3652,7 +3694,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -3675,7 +3717,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="18.75">
       <c r="A31" t="s">
         <v>148</v>
       </c>
@@ -3698,7 +3740,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>153</v>
       </c>
@@ -3721,7 +3763,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="18.75">
       <c r="A33" t="s">
         <v>158</v>
       </c>
@@ -3744,7 +3786,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="18.75">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -3767,7 +3809,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="18.75">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -3790,7 +3832,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="18.75">
       <c r="A36" t="s">
         <v>549</v>
       </c>
@@ -3813,7 +3855,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="18.75">
       <c r="A37" t="s">
         <v>173</v>
       </c>
@@ -3836,7 +3878,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="18.75">
       <c r="A38" t="s">
         <v>178</v>
       </c>
@@ -3859,7 +3901,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="18.75">
       <c r="A39" t="s">
         <v>183</v>
       </c>
@@ -3882,7 +3924,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="18.75">
       <c r="A40" t="s">
         <v>188</v>
       </c>
@@ -3905,7 +3947,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="18.75">
       <c r="A41" t="s">
         <v>193</v>
       </c>
@@ -3928,7 +3970,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>198</v>
       </c>
@@ -3951,7 +3993,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>547</v>
       </c>
@@ -3974,7 +4016,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>203</v>
       </c>
@@ -3997,7 +4039,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="18.75">
       <c r="A45" t="s">
         <v>208</v>
       </c>
@@ -4020,7 +4062,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="18.75">
       <c r="A46" t="s">
         <v>213</v>
       </c>
@@ -4043,7 +4085,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>218</v>
       </c>
@@ -4066,7 +4108,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="18.75">
       <c r="A48" t="s">
         <v>223</v>
       </c>
@@ -4089,7 +4131,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>228</v>
       </c>
@@ -4112,7 +4154,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>233</v>
       </c>
@@ -4135,7 +4177,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>238</v>
       </c>
@@ -4158,7 +4200,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>243</v>
       </c>
@@ -4181,7 +4223,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" ht="18.75">
       <c r="A53" t="s">
         <v>248</v>
       </c>
@@ -4204,7 +4246,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>253</v>
       </c>
@@ -4227,7 +4269,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" ht="18.75">
       <c r="A55" t="s">
         <v>258</v>
       </c>
@@ -4250,7 +4292,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" ht="18.75">
       <c r="A56" t="s">
         <v>263</v>
       </c>
@@ -4273,7 +4315,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" ht="18.75">
       <c r="A57" t="s">
         <v>268</v>
       </c>
@@ -4296,7 +4338,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" ht="18.75">
       <c r="A58" t="s">
         <v>273</v>
       </c>
@@ -4319,7 +4361,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" ht="18.75">
       <c r="A59" s="3" t="s">
         <v>279</v>
       </c>
@@ -4342,7 +4384,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" ht="18.75">
       <c r="A60" s="3" t="s">
         <v>284</v>
       </c>
@@ -4365,7 +4407,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" ht="18.75">
       <c r="A61" s="3" t="s">
         <v>289</v>
       </c>
@@ -4388,7 +4430,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" ht="18.75">
       <c r="A62" s="3" t="s">
         <v>294</v>
       </c>
@@ -4411,7 +4453,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" ht="18.75">
       <c r="A63" s="3" t="s">
         <v>299</v>
       </c>
@@ -4434,7 +4476,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" ht="18.75">
       <c r="A64" s="3" t="s">
         <v>304</v>
       </c>
@@ -4457,7 +4499,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" ht="18.75">
       <c r="A65" s="3" t="s">
         <v>309</v>
       </c>
@@ -4480,7 +4522,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" ht="18.75">
       <c r="A66" s="3" t="s">
         <v>314</v>
       </c>
@@ -4503,7 +4545,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" ht="18.75">
       <c r="A67" s="3" t="s">
         <v>319</v>
       </c>
@@ -4526,7 +4568,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" ht="18.75">
       <c r="A68" s="3" t="s">
         <v>324</v>
       </c>
@@ -4549,7 +4591,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" ht="18.75">
       <c r="A69" s="3" t="s">
         <v>333</v>
       </c>
@@ -4572,7 +4614,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" ht="18.75">
       <c r="A70" s="3" t="s">
         <v>338</v>
       </c>
@@ -4595,7 +4637,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" ht="18.75">
       <c r="A71" s="3" t="s">
         <v>346</v>
       </c>
@@ -4618,7 +4660,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" ht="18.75">
       <c r="A72" s="3" t="s">
         <v>356</v>
       </c>
@@ -4641,7 +4683,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" ht="18.75">
       <c r="A73" s="3" t="s">
         <v>361</v>
       </c>
@@ -4664,7 +4706,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" ht="18.75">
       <c r="A74" s="3" t="s">
         <v>367</v>
       </c>
@@ -4687,7 +4729,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" ht="18.75">
       <c r="A75" s="3" t="s">
         <v>373</v>
       </c>
@@ -4710,7 +4752,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" ht="18.75">
       <c r="A76" s="3" t="s">
         <v>379</v>
       </c>
@@ -4733,7 +4775,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" ht="18.75">
       <c r="A77" s="3" t="s">
         <v>387</v>
       </c>
@@ -4756,7 +4798,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" ht="18.75">
       <c r="A78" s="3" t="s">
         <v>393</v>
       </c>
@@ -4779,7 +4821,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" ht="18.75">
       <c r="A79" s="3" t="s">
         <v>401</v>
       </c>
@@ -4802,7 +4844,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" ht="18.75">
       <c r="A80" s="3" t="s">
         <v>402</v>
       </c>
@@ -4825,7 +4867,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" ht="18.75">
       <c r="A81" s="3" t="s">
         <v>412</v>
       </c>
@@ -4848,7 +4890,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" ht="18.75">
       <c r="A82" s="3" t="s">
         <v>413</v>
       </c>
@@ -4871,7 +4913,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" ht="18.75">
       <c r="A83" s="3" t="s">
         <v>414</v>
       </c>
@@ -4894,7 +4936,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" ht="18.75">
       <c r="A84" s="3" t="s">
         <v>415</v>
       </c>
@@ -4917,7 +4959,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" ht="18.75">
       <c r="A85" s="3" t="s">
         <v>440</v>
       </c>
@@ -4940,7 +4982,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" ht="18.75">
       <c r="A86" s="3" t="s">
         <v>446</v>
       </c>
@@ -4963,7 +5005,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" ht="18.75">
       <c r="A87" s="3" t="s">
         <v>452</v>
       </c>
@@ -4986,7 +5028,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" ht="18.75">
       <c r="A88" s="3" t="s">
         <v>459</v>
       </c>
@@ -5009,7 +5051,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" ht="18.75">
       <c r="A89" s="3" t="s">
         <v>471</v>
       </c>
@@ -5032,7 +5074,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" ht="18.75">
       <c r="A90" s="3" t="s">
         <v>477</v>
       </c>
@@ -5055,7 +5097,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" ht="18.75">
       <c r="A91" s="3" t="s">
         <v>483</v>
       </c>
@@ -5078,7 +5120,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" ht="18.75">
       <c r="A92" s="3" t="s">
         <v>489</v>
       </c>
@@ -5101,7 +5143,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" ht="18.75">
       <c r="A93" s="3" t="s">
         <v>495</v>
       </c>
@@ -5124,7 +5166,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" ht="18.75">
       <c r="A94" s="3" t="s">
         <v>560</v>
       </c>
@@ -5147,7 +5189,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" ht="18.75">
       <c r="A95" s="3" t="s">
         <v>572</v>
       </c>
@@ -5170,7 +5212,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" ht="18.75">
       <c r="A96" s="3" t="s">
         <v>579</v>
       </c>
@@ -5193,7 +5235,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" ht="18.75">
       <c r="A97" s="3" t="s">
         <v>589</v>
       </c>
@@ -5216,7 +5258,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" ht="18.75">
       <c r="A98" s="3" t="s">
         <v>596</v>
       </c>
@@ -5239,7 +5281,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" ht="18.75">
       <c r="A99" s="3" t="s">
         <v>616</v>
       </c>
@@ -5262,7 +5304,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" ht="18.75">
       <c r="A100" s="3" t="s">
         <v>623</v>
       </c>
@@ -5285,7 +5327,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" ht="18.75">
       <c r="A101" t="s">
         <v>630</v>
       </c>
@@ -5308,7 +5350,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" ht="18.75">
       <c r="A102" s="3" t="s">
         <v>637</v>
       </c>
@@ -5331,7 +5373,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" ht="18.75">
       <c r="A103" s="3" t="s">
         <v>644</v>
       </c>
@@ -5354,7 +5396,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" ht="18.75">
       <c r="A104" t="s">
         <v>651</v>
       </c>
@@ -5377,7 +5419,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7" ht="18.75">
       <c r="A105" s="3" t="s">
         <v>658</v>
       </c>
@@ -5400,7 +5442,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7" ht="18.75">
       <c r="A106" s="3" t="s">
         <v>665</v>
       </c>
@@ -5423,7 +5465,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7" ht="18.75">
       <c r="A107" s="3" t="s">
         <v>672</v>
       </c>
@@ -5446,7 +5488,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7" ht="18.75">
       <c r="A108" s="3" t="s">
         <v>696</v>
       </c>
@@ -5469,7 +5511,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7" ht="18.75">
       <c r="A109" s="3" t="s">
         <v>707</v>
       </c>
@@ -5490,6 +5532,52 @@
       </c>
       <c r="G109" s="3" t="s">
         <v>713</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="18.75">
+      <c r="A110" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="18.75">
+      <c r="A111" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>727</v>
       </c>
     </row>
   </sheetData>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mptang\Desktop\local testing\online-web-app-deployment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\local testing\online web app deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADC2F69-A063-4D3C-9EE5-5AB95DA6F6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BDF84A-FDD9-41CD-9A3E-B5B30AA5F3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31845" yWindow="3705" windowWidth="21600" windowHeight="11295" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="745">
   <si>
     <t>Dictionary Form</t>
   </si>
@@ -2610,17 +2610,85 @@
   </si>
   <si>
     <t>巻き込める</t>
+  </si>
+  <si>
+    <t>怒る</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒って</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒った</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒らない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒ります</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒ろう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒れる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒られる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巻き込まれる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行われる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生きる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生きて</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生きた</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生きない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生きます</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生きよう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生きられる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2629,14 +2697,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2691,7 +2759,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2707,9 +2775,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2747,7 +2815,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2853,7 +2921,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2995,7 +3063,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3003,13 +3071,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
@@ -3021,7 +3089,7 @@
     <col min="8" max="8" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3047,7 +3115,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3073,7 +3141,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75">
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3096,7 +3164,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3119,7 +3187,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75">
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3142,7 +3210,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -3165,7 +3233,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -3188,7 +3256,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75">
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -3211,7 +3279,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75">
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -3234,7 +3302,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75">
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -3257,7 +3325,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75">
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
@@ -3280,7 +3348,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75">
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>53</v>
       </c>
@@ -3303,7 +3371,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
@@ -3326,7 +3394,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.75">
+    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -3349,7 +3417,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.75">
+    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -3372,7 +3440,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.75">
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -3395,7 +3463,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -3418,7 +3486,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75">
+    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -3441,7 +3509,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75">
+    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -3464,7 +3532,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -3487,7 +3555,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -3510,7 +3578,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75">
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -3533,7 +3601,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75">
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -3556,7 +3624,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75">
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -3579,7 +3647,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75">
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -3602,7 +3670,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75">
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -3625,7 +3693,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75">
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -3648,7 +3716,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75">
+    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -3671,7 +3739,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -3694,7 +3762,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -3717,7 +3785,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18.75">
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>148</v>
       </c>
@@ -3740,7 +3808,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>153</v>
       </c>
@@ -3763,7 +3831,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18.75">
+    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>158</v>
       </c>
@@ -3786,7 +3854,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18.75">
+    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -3809,7 +3877,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18.75">
+    <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -3832,7 +3900,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.75">
+    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>549</v>
       </c>
@@ -3855,7 +3923,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18.75">
+    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>173</v>
       </c>
@@ -3878,7 +3946,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18.75">
+    <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>178</v>
       </c>
@@ -3901,7 +3969,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="18.75">
+    <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>183</v>
       </c>
@@ -3924,7 +3992,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18.75">
+    <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>188</v>
       </c>
@@ -3947,7 +4015,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18.75">
+    <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>193</v>
       </c>
@@ -3970,7 +4038,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>198</v>
       </c>
@@ -3993,7 +4061,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>547</v>
       </c>
@@ -4016,7 +4084,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>203</v>
       </c>
@@ -4039,7 +4107,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="18.75">
+    <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>208</v>
       </c>
@@ -4062,7 +4130,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18.75">
+    <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>213</v>
       </c>
@@ -4085,7 +4153,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>218</v>
       </c>
@@ -4108,7 +4176,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="18.75">
+    <row r="48" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>223</v>
       </c>
@@ -4131,7 +4199,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>228</v>
       </c>
@@ -4154,7 +4222,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>233</v>
       </c>
@@ -4177,7 +4245,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>238</v>
       </c>
@@ -4200,7 +4268,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>243</v>
       </c>
@@ -4223,7 +4291,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="18.75">
+    <row r="53" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>248</v>
       </c>
@@ -4246,7 +4314,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>253</v>
       </c>
@@ -4269,7 +4337,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="18.75">
+    <row r="55" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>258</v>
       </c>
@@ -4292,7 +4360,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="18.75">
+    <row r="56" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>263</v>
       </c>
@@ -4315,7 +4383,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="18.75">
+    <row r="57" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>268</v>
       </c>
@@ -4338,7 +4406,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="18.75">
+    <row r="58" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>273</v>
       </c>
@@ -4361,7 +4429,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="18.75">
+    <row r="59" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
         <v>279</v>
       </c>
@@ -4384,7 +4452,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="18.75">
+    <row r="60" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>284</v>
       </c>
@@ -4407,7 +4475,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="18.75">
+    <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>289</v>
       </c>
@@ -4430,7 +4498,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="18.75">
+    <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>294</v>
       </c>
@@ -4453,7 +4521,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="18.75">
+    <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>299</v>
       </c>
@@ -4476,7 +4544,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="18.75">
+    <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>304</v>
       </c>
@@ -4499,7 +4567,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="18.75">
+    <row r="65" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
         <v>309</v>
       </c>
@@ -4522,7 +4590,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="18.75">
+    <row r="66" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
         <v>314</v>
       </c>
@@ -4545,7 +4613,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="18.75">
+    <row r="67" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
         <v>319</v>
       </c>
@@ -4568,7 +4636,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="18.75">
+    <row r="68" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
         <v>324</v>
       </c>
@@ -4591,7 +4659,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="18.75">
+    <row r="69" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
         <v>333</v>
       </c>
@@ -4614,7 +4682,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="18.75">
+    <row r="70" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
         <v>338</v>
       </c>
@@ -4637,7 +4705,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="18.75">
+    <row r="71" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
         <v>346</v>
       </c>
@@ -4660,7 +4728,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="18.75">
+    <row r="72" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
         <v>356</v>
       </c>
@@ -4683,7 +4751,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="18.75">
+    <row r="73" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
         <v>361</v>
       </c>
@@ -4706,7 +4774,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="18.75">
+    <row r="74" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>367</v>
       </c>
@@ -4729,7 +4797,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="18.75">
+    <row r="75" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
         <v>373</v>
       </c>
@@ -4752,7 +4820,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="18.75">
+    <row r="76" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
         <v>379</v>
       </c>
@@ -4775,7 +4843,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="18.75">
+    <row r="77" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
         <v>387</v>
       </c>
@@ -4798,7 +4866,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="18.75">
+    <row r="78" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
         <v>393</v>
       </c>
@@ -4821,7 +4889,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="18.75">
+    <row r="79" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
         <v>401</v>
       </c>
@@ -4844,7 +4912,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="18.75">
+    <row r="80" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
         <v>402</v>
       </c>
@@ -4867,7 +4935,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="18.75">
+    <row r="81" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>412</v>
       </c>
@@ -4890,7 +4958,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="18.75">
+    <row r="82" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
         <v>413</v>
       </c>
@@ -4913,7 +4981,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="18.75">
+    <row r="83" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
         <v>414</v>
       </c>
@@ -4936,7 +5004,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="18.75">
+    <row r="84" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
         <v>415</v>
       </c>
@@ -4959,7 +5027,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="18.75">
+    <row r="85" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
         <v>440</v>
       </c>
@@ -4982,7 +5050,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="18.75">
+    <row r="86" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
         <v>446</v>
       </c>
@@ -5005,7 +5073,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="18.75">
+    <row r="87" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
         <v>452</v>
       </c>
@@ -5028,7 +5096,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="18.75">
+    <row r="88" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
         <v>459</v>
       </c>
@@ -5051,7 +5119,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="18.75">
+    <row r="89" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
         <v>471</v>
       </c>
@@ -5074,7 +5142,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="18.75">
+    <row r="90" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
         <v>477</v>
       </c>
@@ -5097,7 +5165,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="18.75">
+    <row r="91" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
         <v>483</v>
       </c>
@@ -5120,7 +5188,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="18.75">
+    <row r="92" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A92" s="3" t="s">
         <v>489</v>
       </c>
@@ -5143,7 +5211,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="18.75">
+    <row r="93" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A93" s="3" t="s">
         <v>495</v>
       </c>
@@ -5166,7 +5234,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="18.75">
+    <row r="94" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
         <v>560</v>
       </c>
@@ -5189,7 +5257,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="18.75">
+    <row r="95" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
         <v>572</v>
       </c>
@@ -5212,7 +5280,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="18.75">
+    <row r="96" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="s">
         <v>579</v>
       </c>
@@ -5235,7 +5303,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="18.75">
+    <row r="97" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
         <v>589</v>
       </c>
@@ -5258,7 +5326,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="18.75">
+    <row r="98" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A98" s="3" t="s">
         <v>596</v>
       </c>
@@ -5281,7 +5349,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="18.75">
+    <row r="99" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A99" s="3" t="s">
         <v>616</v>
       </c>
@@ -5304,7 +5372,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="18.75">
+    <row r="100" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A100" s="3" t="s">
         <v>623</v>
       </c>
@@ -5327,7 +5395,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="18.75">
+    <row r="101" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>630</v>
       </c>
@@ -5350,7 +5418,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="18.75">
+    <row r="102" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A102" s="3" t="s">
         <v>637</v>
       </c>
@@ -5373,7 +5441,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="18.75">
+    <row r="103" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A103" s="3" t="s">
         <v>644</v>
       </c>
@@ -5396,7 +5464,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="18.75">
+    <row r="104" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>651</v>
       </c>
@@ -5419,7 +5487,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="18.75">
+    <row r="105" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A105" s="3" t="s">
         <v>658</v>
       </c>
@@ -5442,7 +5510,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="18.75">
+    <row r="106" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A106" s="3" t="s">
         <v>665</v>
       </c>
@@ -5465,7 +5533,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="18.75">
+    <row r="107" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A107" s="3" t="s">
         <v>672</v>
       </c>
@@ -5488,7 +5556,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="18.75">
+    <row r="108" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A108" s="3" t="s">
         <v>696</v>
       </c>
@@ -5511,7 +5579,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="18.75">
+    <row r="109" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A109" s="3" t="s">
         <v>707</v>
       </c>
@@ -5534,7 +5602,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="18.75">
+    <row r="110" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A110" s="3" t="s">
         <v>714</v>
       </c>
@@ -5556,8 +5624,11 @@
       <c r="G110" s="3" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="18.75">
+      <c r="H110" s="3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A111" s="3" t="s">
         <v>721</v>
       </c>
@@ -5578,6 +5649,61 @@
       </c>
       <c r="G111" s="3" t="s">
         <v>727</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A112" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A113" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>744</v>
       </c>
     </row>
   </sheetData>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\local testing\online web app deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BDF84A-FDD9-41CD-9A3E-B5B30AA5F3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30614CED-96F0-444D-B176-D4D7B4986516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="760">
   <si>
     <t>Dictionary Form</t>
   </si>
@@ -2677,6 +2677,66 @@
   </si>
   <si>
     <t>生きられる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>負ける</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>負けて</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>負けた</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>負けない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>負けます</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>負けよう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>負けられる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勝つ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勝って</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勝った</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勝たない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勝ちます</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勝とう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勝てる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勝たれる</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3071,10 +3131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5706,6 +5766,58 @@
         <v>744</v>
       </c>
     </row>
+    <row r="114" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A114" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A115" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>759</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\local testing\online web app deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30614CED-96F0-444D-B176-D4D7B4986516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925BE767-FB07-44F7-B5AE-BD1ACCD631E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A357A7E5-BAA5-4C24-A2E6-28D531E07DBD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="760">
   <si>
     <t>Dictionary Form</t>
   </si>
@@ -3133,8 +3133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C76790-D60C-4D2A-B9EE-DB30025A8785}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="J118" sqref="J118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3223,6 +3223,9 @@
       <c r="G3" s="2" t="s">
         <v>507</v>
       </c>
+      <c r="H3" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -3246,6 +3249,9 @@
       <c r="G4" s="2" t="s">
         <v>508</v>
       </c>
+      <c r="H4" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
@@ -3269,6 +3275,9 @@
       <c r="G5" s="2" t="s">
         <v>509</v>
       </c>
+      <c r="H5" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
@@ -3292,6 +3301,9 @@
       <c r="G6" s="2" t="s">
         <v>510</v>
       </c>
+      <c r="H6" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
@@ -3315,6 +3327,9 @@
       <c r="G7" s="2" t="s">
         <v>511</v>
       </c>
+      <c r="H7" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
@@ -3338,6 +3353,9 @@
       <c r="G8" s="2" t="s">
         <v>512</v>
       </c>
+      <c r="H8" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
@@ -3361,6 +3379,9 @@
       <c r="G9" s="3" t="s">
         <v>513</v>
       </c>
+      <c r="H9" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
@@ -3384,6 +3405,9 @@
       <c r="G10" s="3" t="s">
         <v>514</v>
       </c>
+      <c r="H10" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
@@ -3407,6 +3431,9 @@
       <c r="G11" s="3" t="s">
         <v>515</v>
       </c>
+      <c r="H11" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
@@ -3430,6 +3457,9 @@
       <c r="G12" s="3" t="s">
         <v>516</v>
       </c>
+      <c r="H12" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -3453,6 +3483,9 @@
       <c r="G13" s="4" t="s">
         <v>517</v>
       </c>
+      <c r="H13" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
@@ -3476,6 +3509,9 @@
       <c r="G14" s="3" t="s">
         <v>518</v>
       </c>
+      <c r="H14" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
@@ -3499,6 +3535,9 @@
       <c r="G15" s="4" t="s">
         <v>504</v>
       </c>
+      <c r="H15" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
@@ -3522,8 +3561,11 @@
       <c r="G16" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -3545,8 +3587,11 @@
       <c r="G17" s="4" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H17" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -3568,8 +3613,11 @@
       <c r="G18" s="4" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H18" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -3591,8 +3639,11 @@
       <c r="G19" s="4" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -3614,8 +3665,11 @@
       <c r="G20" s="4" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -3637,8 +3691,11 @@
       <c r="G21" s="4" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H21" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -3660,8 +3717,11 @@
       <c r="G22" s="3" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H22" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -3683,8 +3743,11 @@
       <c r="G23" s="3" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H23" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -3706,8 +3769,11 @@
       <c r="G24" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H24" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -3729,8 +3795,11 @@
       <c r="G25" s="3" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H25" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -3752,8 +3821,11 @@
       <c r="G26" s="3" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H26" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -3775,8 +3847,11 @@
       <c r="G27" s="3" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H27" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -3798,8 +3873,11 @@
       <c r="G28" s="3" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -3821,8 +3899,11 @@
       <c r="G29" s="4" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -3844,8 +3925,11 @@
       <c r="G30" s="4" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H30" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>148</v>
       </c>
@@ -3867,8 +3951,11 @@
       <c r="G31" s="3" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>153</v>
       </c>
@@ -3890,8 +3977,11 @@
       <c r="G32" s="4" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H32" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>158</v>
       </c>
@@ -3913,8 +4003,11 @@
       <c r="G33" s="3" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H33" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -3936,8 +4029,11 @@
       <c r="G34" s="3" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H34" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -3959,8 +4055,11 @@
       <c r="G35" s="3" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H35" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>549</v>
       </c>
@@ -3982,8 +4081,11 @@
       <c r="G36" s="3" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H36" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>173</v>
       </c>
@@ -4005,8 +4107,11 @@
       <c r="G37" s="3" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H37" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>178</v>
       </c>
@@ -4028,8 +4133,11 @@
       <c r="G38" s="3" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H38" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>183</v>
       </c>
@@ -4051,8 +4159,11 @@
       <c r="G39" s="3" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H39" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>188</v>
       </c>
@@ -4074,8 +4185,11 @@
       <c r="G40" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H40" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>193</v>
       </c>
@@ -4097,8 +4211,11 @@
       <c r="G41" s="3" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>198</v>
       </c>
@@ -4120,8 +4237,11 @@
       <c r="G42" s="4" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>547</v>
       </c>
@@ -4143,8 +4263,11 @@
       <c r="G43" s="4" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>203</v>
       </c>
@@ -4166,8 +4289,11 @@
       <c r="G44" s="4" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H44" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>208</v>
       </c>
@@ -4189,8 +4315,11 @@
       <c r="G45" s="3" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H45" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>213</v>
       </c>
@@ -4212,8 +4341,11 @@
       <c r="G46" s="3" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>218</v>
       </c>
@@ -4235,8 +4367,11 @@
       <c r="G47" s="4" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H47" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>223</v>
       </c>
@@ -4258,8 +4393,11 @@
       <c r="G48" s="3" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>228</v>
       </c>
@@ -4281,8 +4419,11 @@
       <c r="G49" s="4" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>233</v>
       </c>
@@ -4304,8 +4445,11 @@
       <c r="G50" s="4" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>238</v>
       </c>
@@ -4327,8 +4471,11 @@
       <c r="G51" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>243</v>
       </c>
@@ -4350,8 +4497,11 @@
       <c r="G52" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H52" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>248</v>
       </c>
@@ -4373,8 +4523,11 @@
       <c r="G53" s="3" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>253</v>
       </c>
@@ -4396,8 +4549,11 @@
       <c r="G54" s="4" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H54" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>258</v>
       </c>
@@ -4419,8 +4575,11 @@
       <c r="G55" s="3" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H55" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>263</v>
       </c>
@@ -4442,8 +4601,11 @@
       <c r="G56" s="3" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H56" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>268</v>
       </c>
@@ -4465,8 +4627,11 @@
       <c r="G57" s="3" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H57" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>273</v>
       </c>
@@ -4488,8 +4653,11 @@
       <c r="G58" s="3" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H58" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
         <v>279</v>
       </c>
@@ -4511,8 +4679,11 @@
       <c r="G59" s="3" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H59" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>284</v>
       </c>
@@ -4534,8 +4705,11 @@
       <c r="G60" s="3" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H60" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>289</v>
       </c>
@@ -4557,8 +4731,11 @@
       <c r="G61" s="3" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H61" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>294</v>
       </c>
@@ -4580,8 +4757,11 @@
       <c r="G62" s="3" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H62" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>299</v>
       </c>
@@ -4603,8 +4783,11 @@
       <c r="G63" s="4" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H63" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>304</v>
       </c>
@@ -4626,8 +4809,11 @@
       <c r="G64" s="3" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H64" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
         <v>309</v>
       </c>
@@ -4649,8 +4835,11 @@
       <c r="G65" s="3" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H65" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
         <v>314</v>
       </c>
@@ -4672,8 +4861,11 @@
       <c r="G66" s="3" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H66" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
         <v>319</v>
       </c>
@@ -4695,8 +4887,11 @@
       <c r="G67" s="3" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H67" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
         <v>324</v>
       </c>
@@ -4718,8 +4913,11 @@
       <c r="G68" s="3" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H68" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
         <v>333</v>
       </c>
@@ -4741,8 +4939,11 @@
       <c r="G69" s="3" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H69" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
         <v>338</v>
       </c>
@@ -4764,8 +4965,11 @@
       <c r="G70" s="3" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H70" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
         <v>346</v>
       </c>
@@ -4787,8 +4991,11 @@
       <c r="G71" s="3" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H71" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
         <v>356</v>
       </c>
@@ -4810,8 +5017,11 @@
       <c r="G72" s="3" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H72" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
         <v>361</v>
       </c>
@@ -4833,8 +5043,11 @@
       <c r="G73" s="3" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H73" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>367</v>
       </c>
@@ -4856,8 +5069,11 @@
       <c r="G74" s="4" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H74" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
         <v>373</v>
       </c>
@@ -4879,8 +5095,11 @@
       <c r="G75" s="3" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H75" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
         <v>379</v>
       </c>
@@ -4902,8 +5121,11 @@
       <c r="G76" s="3" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H76" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
         <v>387</v>
       </c>
@@ -4925,8 +5147,11 @@
       <c r="G77" s="4" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H77" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
         <v>393</v>
       </c>
@@ -4948,8 +5173,11 @@
       <c r="G78" s="3" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H78" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
         <v>401</v>
       </c>
@@ -4971,8 +5199,11 @@
       <c r="G79" s="3" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H79" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
         <v>402</v>
       </c>
@@ -4994,8 +5225,11 @@
       <c r="G80" s="3" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H80" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>412</v>
       </c>
@@ -5017,8 +5251,11 @@
       <c r="G81" s="3" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H81" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
         <v>413</v>
       </c>
@@ -5040,8 +5277,11 @@
       <c r="G82" s="3" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H82" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
         <v>414</v>
       </c>
@@ -5063,8 +5303,11 @@
       <c r="G83" s="3" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H83" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
         <v>415</v>
       </c>
@@ -5086,8 +5329,11 @@
       <c r="G84" s="3" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H84" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
         <v>440</v>
       </c>
@@ -5109,8 +5355,11 @@
       <c r="G85" s="3" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H85" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
         <v>446</v>
       </c>
@@ -5132,8 +5381,11 @@
       <c r="G86" s="3" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H86" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
         <v>452</v>
       </c>
@@ -5155,8 +5407,11 @@
       <c r="G87" s="3" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H87" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
         <v>459</v>
       </c>
@@ -5178,8 +5433,11 @@
       <c r="G88" s="4" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H88" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
         <v>471</v>
       </c>
@@ -5201,8 +5459,11 @@
       <c r="G89" s="4" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H89" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
         <v>477</v>
       </c>
@@ -5224,8 +5485,11 @@
       <c r="G90" s="4" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H90" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
         <v>483</v>
       </c>
@@ -5247,8 +5511,11 @@
       <c r="G91" s="4" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H91" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A92" s="3" t="s">
         <v>489</v>
       </c>
@@ -5270,8 +5537,11 @@
       <c r="G92" s="3" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H92" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A93" s="3" t="s">
         <v>495</v>
       </c>
@@ -5293,8 +5563,11 @@
       <c r="G93" s="3" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H93" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
         <v>560</v>
       </c>
@@ -5316,8 +5589,11 @@
       <c r="G94" s="3" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H94" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
         <v>572</v>
       </c>
@@ -5339,8 +5615,11 @@
       <c r="G95" s="3" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="H95" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="s">
         <v>579</v>
       </c>
@@ -5361,6 +5640,9 @@
       </c>
       <c r="G96" s="3" t="s">
         <v>585</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
@@ -5385,6 +5667,9 @@
       <c r="G97" s="3" t="s">
         <v>595</v>
       </c>
+      <c r="H97" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="98" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A98" s="3" t="s">
@@ -5408,6 +5693,9 @@
       <c r="G98" s="3" t="s">
         <v>602</v>
       </c>
+      <c r="H98" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="99" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A99" s="3" t="s">
@@ -5431,6 +5719,9 @@
       <c r="G99" s="3" t="s">
         <v>622</v>
       </c>
+      <c r="H99" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="100" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A100" s="3" t="s">
@@ -5454,6 +5745,9 @@
       <c r="G100" s="3" t="s">
         <v>629</v>
       </c>
+      <c r="H100" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="101" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
@@ -5477,6 +5771,9 @@
       <c r="G101" s="3" t="s">
         <v>636</v>
       </c>
+      <c r="H101" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="102" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A102" s="3" t="s">
@@ -5500,6 +5797,9 @@
       <c r="G102" s="3" t="s">
         <v>643</v>
       </c>
+      <c r="H102" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="103" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A103" s="3" t="s">
@@ -5523,6 +5823,9 @@
       <c r="G103" s="3" t="s">
         <v>650</v>
       </c>
+      <c r="H103" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="104" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
@@ -5546,6 +5849,9 @@
       <c r="G104" s="3" t="s">
         <v>657</v>
       </c>
+      <c r="H104" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="105" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A105" s="3" t="s">
@@ -5569,6 +5875,9 @@
       <c r="G105" s="3" t="s">
         <v>664</v>
       </c>
+      <c r="H105" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="106" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A106" s="3" t="s">
@@ -5592,6 +5901,9 @@
       <c r="G106" s="3" t="s">
         <v>671</v>
       </c>
+      <c r="H106" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="107" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A107" s="3" t="s">
@@ -5615,6 +5927,9 @@
       <c r="G107" s="3" t="s">
         <v>678</v>
       </c>
+      <c r="H107" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="108" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A108" s="3" t="s">
@@ -5638,6 +5953,9 @@
       <c r="G108" s="3" t="s">
         <v>702</v>
       </c>
+      <c r="H108" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="109" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A109" s="3" t="s">
@@ -5660,6 +5978,9 @@
       </c>
       <c r="G109" s="3" t="s">
         <v>713</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="18.75" x14ac:dyDescent="0.4">
